--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abjaw\Documents\GitHub\CSE_264_CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46856F-32FC-40C8-A9F7-B2C1309459BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A6231-9FDE-4572-84BD-F94C78C8B68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9090" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51675" yWindow="-9330" windowWidth="11070" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -365,8 +365,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
@@ -11926,7 +11926,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12021,6 +12021,42 @@
       <c r="D5" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E5">
+        <v>239.53200000000001</v>
+      </c>
+      <c r="F5">
+        <v>231.904</v>
+      </c>
+      <c r="G5">
+        <v>60.002000000000002</v>
+      </c>
+      <c r="H5">
+        <v>190.83199999999999</v>
+      </c>
+      <c r="I5">
+        <v>182.108</v>
+      </c>
+      <c r="J5">
+        <v>182.24299999999999</v>
+      </c>
+      <c r="K5">
+        <v>241.625</v>
+      </c>
+      <c r="L5">
+        <v>190.48</v>
+      </c>
+      <c r="M5">
+        <v>21.420999999999999</v>
+      </c>
+      <c r="N5">
+        <v>224.035</v>
+      </c>
+      <c r="O5">
+        <v>200.285</v>
+      </c>
+      <c r="P5">
+        <v>198.46899999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12035,6 +12071,42 @@
       <c r="D6" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E6">
+        <v>245.851</v>
+      </c>
+      <c r="F6">
+        <v>238.58099999999999</v>
+      </c>
+      <c r="G6">
+        <v>88.786000000000001</v>
+      </c>
+      <c r="H6">
+        <v>201.29900000000001</v>
+      </c>
+      <c r="I6">
+        <v>192.53800000000001</v>
+      </c>
+      <c r="J6">
+        <v>191.346</v>
+      </c>
+      <c r="K6">
+        <v>249.42</v>
+      </c>
+      <c r="L6">
+        <v>208.702</v>
+      </c>
+      <c r="M6">
+        <v>74.537000000000006</v>
+      </c>
+      <c r="N6">
+        <v>243.37899999999999</v>
+      </c>
+      <c r="O6">
+        <v>222.90100000000001</v>
+      </c>
+      <c r="P6">
+        <v>217.161</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12049,6 +12121,42 @@
       <c r="D7" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E7">
+        <v>235.89500000000001</v>
+      </c>
+      <c r="F7">
+        <v>230.065</v>
+      </c>
+      <c r="G7">
+        <v>51.923000000000002</v>
+      </c>
+      <c r="H7">
+        <v>186.08799999999999</v>
+      </c>
+      <c r="I7">
+        <v>180.10499999999999</v>
+      </c>
+      <c r="J7">
+        <v>180.39599999999999</v>
+      </c>
+      <c r="K7">
+        <v>240.279</v>
+      </c>
+      <c r="L7">
+        <v>189.43700000000001</v>
+      </c>
+      <c r="M7">
+        <v>17.803999999999998</v>
+      </c>
+      <c r="N7">
+        <v>224.68</v>
+      </c>
+      <c r="O7">
+        <v>203.25800000000001</v>
+      </c>
+      <c r="P7">
+        <v>201.512</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12063,6 +12171,42 @@
       <c r="D8" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E8">
+        <v>235.01300000000001</v>
+      </c>
+      <c r="F8">
+        <v>230.31399999999999</v>
+      </c>
+      <c r="G8">
+        <v>49.725000000000001</v>
+      </c>
+      <c r="H8">
+        <v>183.06299999999999</v>
+      </c>
+      <c r="I8">
+        <v>177.01300000000001</v>
+      </c>
+      <c r="J8">
+        <v>177.03</v>
+      </c>
+      <c r="K8">
+        <v>240.916</v>
+      </c>
+      <c r="L8">
+        <v>190.12100000000001</v>
+      </c>
+      <c r="M8">
+        <v>18.956</v>
+      </c>
+      <c r="N8">
+        <v>215.78200000000001</v>
+      </c>
+      <c r="O8">
+        <v>193.291</v>
+      </c>
+      <c r="P8">
+        <v>195.45400000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12077,6 +12221,42 @@
       <c r="D9" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E9">
+        <v>235.721</v>
+      </c>
+      <c r="F9">
+        <v>231.12</v>
+      </c>
+      <c r="G9">
+        <v>55.685000000000002</v>
+      </c>
+      <c r="H9">
+        <v>187.11099999999999</v>
+      </c>
+      <c r="I9">
+        <v>181.17699999999999</v>
+      </c>
+      <c r="J9">
+        <v>183.54900000000001</v>
+      </c>
+      <c r="K9">
+        <v>240.541</v>
+      </c>
+      <c r="L9">
+        <v>190.72800000000001</v>
+      </c>
+      <c r="M9">
+        <v>14.536</v>
+      </c>
+      <c r="N9">
+        <v>219.78800000000001</v>
+      </c>
+      <c r="O9">
+        <v>198.261</v>
+      </c>
+      <c r="P9">
+        <v>198.797</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12091,6 +12271,42 @@
       <c r="D10" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E10">
+        <v>221.33699999999999</v>
+      </c>
+      <c r="F10">
+        <v>219.119</v>
+      </c>
+      <c r="G10">
+        <v>46.543999999999997</v>
+      </c>
+      <c r="H10">
+        <v>170.13300000000001</v>
+      </c>
+      <c r="I10">
+        <v>165.61799999999999</v>
+      </c>
+      <c r="J10">
+        <v>169.17400000000001</v>
+      </c>
+      <c r="K10">
+        <v>227.49</v>
+      </c>
+      <c r="L10">
+        <v>174.69800000000001</v>
+      </c>
+      <c r="M10">
+        <v>17.449000000000002</v>
+      </c>
+      <c r="N10">
+        <v>204.45099999999999</v>
+      </c>
+      <c r="O10">
+        <v>178.672</v>
+      </c>
+      <c r="P10">
+        <v>181.506</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12104,6 +12320,42 @@
       </c>
       <c r="D11" s="6">
         <v>1.278281989006775E-4</v>
+      </c>
+      <c r="E11">
+        <v>230.98400000000001</v>
+      </c>
+      <c r="F11">
+        <v>226.155</v>
+      </c>
+      <c r="G11">
+        <v>69.447999999999993</v>
+      </c>
+      <c r="H11">
+        <v>183.83199999999999</v>
+      </c>
+      <c r="I11">
+        <v>176.97800000000001</v>
+      </c>
+      <c r="J11">
+        <v>179.44200000000001</v>
+      </c>
+      <c r="K11">
+        <v>238.45</v>
+      </c>
+      <c r="L11">
+        <v>195.18100000000001</v>
+      </c>
+      <c r="M11">
+        <v>78.921999999999997</v>
+      </c>
+      <c r="N11">
+        <v>240.852</v>
+      </c>
+      <c r="O11">
+        <v>221.16900000000001</v>
+      </c>
+      <c r="P11">
+        <v>213.89</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abjaw\Documents\GitHub\CSE_264_CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A6231-9FDE-4572-84BD-F94C78C8B68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F449EC16-D531-436A-9A11-37F3B29A76C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51675" yWindow="-9330" windowWidth="11070" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9090" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="83">
   <si>
     <t xml:space="preserve">Task 1 </t>
   </si>
@@ -272,6 +272,87 @@
   <si>
     <t>B.YELLOW</t>
   </si>
+  <si>
+    <t>SUNCROPPED</t>
+  </si>
+  <si>
+    <t>Linearized</t>
+  </si>
+  <si>
+    <t>ROOMLIGHTCROPPED</t>
+  </si>
+  <si>
+    <t>PICT0064</t>
+  </si>
+  <si>
+    <t>PICT0065</t>
+  </si>
+  <si>
+    <t>PICT0066</t>
+  </si>
+  <si>
+    <t>PICT0067</t>
+  </si>
+  <si>
+    <t>PICT0068</t>
+  </si>
+  <si>
+    <t>PICT0069</t>
+  </si>
+  <si>
+    <t>PICT0070</t>
+  </si>
+  <si>
+    <t>PICT0071</t>
+  </si>
+  <si>
+    <t>PICT0072</t>
+  </si>
+  <si>
+    <t>PICT0073</t>
+  </si>
+  <si>
+    <t>ROOMLIGHT_MCROPPED</t>
+  </si>
+  <si>
+    <t>PICT0084</t>
+  </si>
+  <si>
+    <t>PICT0085</t>
+  </si>
+  <si>
+    <t>PICT0086</t>
+  </si>
+  <si>
+    <t>PICT0087</t>
+  </si>
+  <si>
+    <t>PICT0088</t>
+  </si>
+  <si>
+    <t>PICT0084(1)</t>
+  </si>
+  <si>
+    <t>PICT0085(1)</t>
+  </si>
+  <si>
+    <t>PICT0086(1)</t>
+  </si>
+  <si>
+    <t>PICT0087(1)</t>
+  </si>
+  <si>
+    <t>PICT0088(1)</t>
+  </si>
+  <si>
+    <t>R'</t>
+  </si>
+  <si>
+    <t>R + G + B</t>
+  </si>
+  <si>
+    <t>G'</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +404,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +442,36 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,14 +479,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -373,12 +531,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="8" builtinId="47"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10291,15 +10471,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>153352</xdr:rowOff>
+      <xdr:rowOff>31432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>758190</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>174307</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10327,15 +10507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>707706</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>952</xdr:rowOff>
+      <xdr:colOff>776286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10363,15 +10543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>212407</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12383</xdr:rowOff>
+      <xdr:colOff>67627</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10881,7 +11061,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11923,10 +12103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A904D1-1C4E-4B8E-AF84-C6BD97E8875B}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:AU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11934,31 +12114,113 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.44140625" customWidth="1"/>
+    <col min="55" max="55" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="W2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
         <v>52</v>
       </c>
+      <c r="P3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AE3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="12"/>
+      <c r="AT3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11971,44 +12233,116 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="R4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -12021,44 +12355,146 @@
       <c r="D5" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>239.53200000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>231.904</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>60.002000000000002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>190.83199999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="10">
         <v>182.108</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>182.24299999999999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <v>241.625</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="11">
         <v>190.48</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="11">
         <v>21.420999999999999</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="12">
         <v>224.035</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="12">
         <v>200.285</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="12">
         <v>198.46899999999999</v>
       </c>
+      <c r="R5" s="13">
+        <f>POWER(E5,1.6543)</f>
+        <v>8633.3849395178477</v>
+      </c>
+      <c r="S5" s="13">
+        <f>POWER(F5,0.862)</f>
+        <v>109.36936801338683</v>
+      </c>
+      <c r="T5" s="13">
+        <f>POWER(G5,1.353)</f>
+        <v>254.59989963963937</v>
+      </c>
+      <c r="U5" s="10">
+        <f>POWER(H5,1.6543)</f>
+        <v>5927.6326747473158</v>
+      </c>
+      <c r="V5" s="10">
+        <f>POWER(I5,0.862)</f>
+        <v>88.798088959047234</v>
+      </c>
+      <c r="W5" s="10">
+        <f>POWER(J5,1.353)</f>
+        <v>1144.6180971404356</v>
+      </c>
+      <c r="X5" s="11">
+        <f>POWER(K5,1.6543)</f>
+        <v>8758.5374370768477</v>
+      </c>
+      <c r="Y5" s="11">
+        <f>POWER(L5,0.862)</f>
+        <v>92.306050165074964</v>
+      </c>
+      <c r="Z5" s="11">
+        <f>POWER(M5,1.353)</f>
+        <v>63.186772083089494</v>
+      </c>
+      <c r="AA5" s="12">
+        <f>POWER(N5,1.6543)</f>
+        <v>7729.0754405088073</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>POWER(O5,0.862)</f>
+        <v>96.387550163586681</v>
+      </c>
+      <c r="AC5" s="12">
+        <f>POWER(P5,1.353)</f>
+        <v>1284.6304086392729</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>SUM(R5+S5+T5)</f>
+        <v>8997.3542071708744</v>
+      </c>
+      <c r="AF5" s="10">
+        <f>SUM(U5+V5+W5)</f>
+        <v>7161.0488608467986</v>
+      </c>
+      <c r="AG5" s="11">
+        <f>SUM(X5:Z5)</f>
+        <v>8914.0302593250108</v>
+      </c>
+      <c r="AH5" s="12">
+        <f>SUM(AA5:AC5)</f>
+        <v>9110.0933993116669</v>
+      </c>
+      <c r="AJ5">
+        <f xml:space="preserve"> R5 / AE5</f>
+        <v>0.95954707803290173</v>
+      </c>
+      <c r="AK5">
+        <f xml:space="preserve"> S5 / AE5</f>
+        <v>1.2155725504973413E-2</v>
+      </c>
+      <c r="AL5">
+        <f xml:space="preserve"> U5 / AF5</f>
+        <v>0.82776040073637613</v>
+      </c>
+      <c r="AM5">
+        <f xml:space="preserve"> V5 / AF5</f>
+        <v>1.2400151246635511E-2</v>
+      </c>
+      <c r="AN5">
+        <f xml:space="preserve"> X5 / AG5</f>
+        <v>0.98255639506209869</v>
+      </c>
+      <c r="AO5">
+        <f xml:space="preserve"> Y5 / AG5</f>
+        <v>1.0355142116385925E-2</v>
+      </c>
+      <c r="AP5">
+        <f xml:space="preserve"> AA5 / AH5</f>
+        <v>0.84840792533398113</v>
+      </c>
+      <c r="AQ5">
+        <f xml:space="preserve"> AB5 / AH5</f>
+        <v>1.0580303180082594E-2</v>
+      </c>
+      <c r="AT5">
+        <v>0.95954707803290173</v>
+      </c>
+      <c r="AU5">
+        <v>1.2155725504973413E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -12071,44 +12507,146 @@
       <c r="D6" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E6">
-        <v>245.851</v>
-      </c>
-      <c r="F6">
-        <v>238.58099999999999</v>
-      </c>
-      <c r="G6">
-        <v>88.786000000000001</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="9">
+        <v>235.851</v>
+      </c>
+      <c r="F6" s="9">
+        <v>232.58099999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>58.786000000000001</v>
+      </c>
+      <c r="H6" s="10">
         <v>201.29900000000001</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <v>192.53800000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>191.346</v>
       </c>
-      <c r="K6">
-        <v>249.42</v>
-      </c>
-      <c r="L6">
-        <v>208.702</v>
-      </c>
-      <c r="M6">
-        <v>74.537000000000006</v>
-      </c>
-      <c r="N6">
+      <c r="K6" s="11">
+        <v>242.42</v>
+      </c>
+      <c r="L6" s="11">
+        <v>188.702</v>
+      </c>
+      <c r="M6" s="11">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="N6" s="12">
         <v>243.37899999999999</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="12">
         <v>222.90100000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="12">
         <v>217.161</v>
       </c>
+      <c r="R6" s="13">
+        <f>POWER(E6,1.6543)</f>
+        <v>8415.0089742737164</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" ref="S6:S14" si="0">POWER(F6,0.862)</f>
+        <v>109.64453479503484</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" ref="T6:T14" si="1">POWER(G6,1.353)</f>
+        <v>247.64388050494895</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" ref="U6:U14" si="2">POWER(H6,1.6543)</f>
+        <v>6475.0807335567479</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" ref="V6:V14" si="3">POWER(I6,0.862)</f>
+        <v>93.165085160309218</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" ref="W6:W14" si="4">POWER(J6,1.353)</f>
+        <v>1222.6485351532517</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" ref="X6:X14" si="5">POWER(K6,1.6543)</f>
+        <v>8806.2615831922831</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" ref="Y6:Y14" si="6">POWER(L6,0.862)</f>
+        <v>91.562859189591222</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" ref="Z6:Z14" si="7">POWER(M6,1.353)</f>
+        <v>51.958592230950323</v>
+      </c>
+      <c r="AA6" s="12">
+        <f t="shared" ref="AA6:AA14" si="8">POWER(N6,1.6543)</f>
+        <v>8863.9671154424796</v>
+      </c>
+      <c r="AB6" s="12">
+        <f t="shared" ref="AB6:AB14" si="9">POWER(O6,0.862)</f>
+        <v>105.69940887840991</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" ref="AC6:AC14" si="10">POWER(P6,1.353)</f>
+        <v>1450.9946791318773</v>
+      </c>
+      <c r="AE6" s="19">
+        <f t="shared" ref="AE6:AE47" si="11">SUM(R6+S6+T6)</f>
+        <v>8772.2973895737014</v>
+      </c>
+      <c r="AF6" s="10">
+        <f t="shared" ref="AF6:AF47" si="12">SUM(U6+V6+W6)</f>
+        <v>7790.8943538703088</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" ref="AG6:AG47" si="13">SUM(X6:Z6)</f>
+        <v>8949.7830346128248</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" ref="AH6:AH47" si="14">SUM(AA6:AC6)</f>
+        <v>10420.661203452768</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ47" si="15" xml:space="preserve"> R6 / AE6</f>
+        <v>0.95927082730635194</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK47" si="16" xml:space="preserve"> S6 / AE6</f>
+        <v>1.249895323035362E-2</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL47" si="17" xml:space="preserve"> U6 / AF6</f>
+        <v>0.8311087841077065</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM47" si="18" xml:space="preserve"> V6 / AF6</f>
+        <v>1.1958201578491087E-2</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN47" si="19" xml:space="preserve"> X6 / AG6</f>
+        <v>0.98396369488897328</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO47" si="20" xml:space="preserve"> Y6 / AG6</f>
+        <v>1.0230735073182957E-2</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:AP47" si="21" xml:space="preserve"> AA6 / AH6</f>
+        <v>0.85061465317627871</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ref="AQ6:AQ47" si="22" xml:space="preserve"> AB6 / AH6</f>
+        <v>1.0143253562776575E-2</v>
+      </c>
+      <c r="AT6">
+        <v>0.94301149661463668</v>
+      </c>
+      <c r="AU6">
+        <v>1.1726014827091562E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -12121,44 +12659,146 @@
       <c r="D7" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>235.89500000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>230.065</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>51.923000000000002</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>186.08799999999999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>180.10499999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>180.39599999999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>240.279</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="11">
         <v>189.43700000000001</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="11">
         <v>17.803999999999998</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="12">
         <v>224.68</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="12">
         <v>203.25800000000001</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="12">
         <v>201.512</v>
       </c>
+      <c r="R7" s="13">
+        <f t="shared" ref="R7:R14" si="23">POWER(E7,1.6543)</f>
+        <v>8417.6062036864532</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="0"/>
+        <v>108.62134537177018</v>
+      </c>
+      <c r="T7" s="13">
+        <f t="shared" si="1"/>
+        <v>209.35424842326915</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="2"/>
+        <v>5685.8460513089331</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="3"/>
+        <v>87.955542872874659</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" si="4"/>
+        <v>1128.9507604603614</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="5"/>
+        <v>8677.9705931388817</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="6"/>
+        <v>91.87020046148136</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="7"/>
+        <v>49.198322309223165</v>
+      </c>
+      <c r="AA7" s="12">
+        <f t="shared" si="8"/>
+        <v>7765.9217826034792</v>
+      </c>
+      <c r="AB7" s="12">
+        <f t="shared" si="9"/>
+        <v>97.619610953587625</v>
+      </c>
+      <c r="AC7" s="12">
+        <f t="shared" si="10"/>
+        <v>1311.3515557722849</v>
+      </c>
+      <c r="AE7" s="19">
+        <f t="shared" si="11"/>
+        <v>8735.5817974814927</v>
+      </c>
+      <c r="AF7" s="10">
+        <f t="shared" si="12"/>
+        <v>6902.7523546421689</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="13"/>
+        <v>8819.0391159095852</v>
+      </c>
+      <c r="AH7" s="12">
+        <f t="shared" si="14"/>
+        <v>9174.8929493293508</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="15"/>
+        <v>0.96359995233669349</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="16"/>
+        <v>1.2434357308987273E-2</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="17"/>
+        <v>0.82370708946050275</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="18"/>
+        <v>1.2742097406076533E-2</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="19"/>
+        <v>0.98400409376615472</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="20"/>
+        <v>1.0417257396641672E-2</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="21"/>
+        <v>0.84643186852345109</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="22"/>
+        <v>1.0639863755655399E-2</v>
+      </c>
+      <c r="AT7">
+        <v>0.96359995233669349</v>
+      </c>
+      <c r="AU7">
+        <v>1.2434357308987273E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -12171,44 +12811,146 @@
       <c r="D8" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>235.01300000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>230.31399999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>49.725000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>183.06299999999999</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="10">
         <v>177.01300000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <v>177.03</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <v>240.916</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="11">
         <v>190.12100000000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="11">
         <v>18.956</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="12">
         <v>215.78200000000001</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="12">
         <v>193.291</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="12">
         <v>195.45400000000001</v>
       </c>
+      <c r="R8" s="13">
+        <f t="shared" si="23"/>
+        <v>8365.6040966456167</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="0"/>
+        <v>108.72267555219096</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="1"/>
+        <v>197.4538896336245</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="2"/>
+        <v>5533.7576017481042</v>
+      </c>
+      <c r="V8" s="10">
+        <f t="shared" si="3"/>
+        <v>86.65237092604886</v>
+      </c>
+      <c r="W8" s="10">
+        <f t="shared" si="4"/>
+        <v>1100.5440096635548</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="5"/>
+        <v>8716.0624765934808</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="6"/>
+        <v>92.156068208701384</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="7"/>
+        <v>53.553922422006693</v>
+      </c>
+      <c r="AA8" s="12">
+        <f t="shared" si="8"/>
+        <v>7263.7580318536993</v>
+      </c>
+      <c r="AB8" s="12">
+        <f t="shared" si="9"/>
+        <v>93.479079582292982</v>
+      </c>
+      <c r="AC8" s="12">
+        <f t="shared" si="10"/>
+        <v>1258.297383197159</v>
+      </c>
+      <c r="AE8" s="19">
+        <f t="shared" si="11"/>
+        <v>8671.7806618314335</v>
+      </c>
+      <c r="AF8" s="10">
+        <f t="shared" si="12"/>
+        <v>6720.9539823377081</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="13"/>
+        <v>8861.7724672241893</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" si="14"/>
+        <v>8615.5344946331516</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="15"/>
+        <v>0.96469276874893262</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="16"/>
+        <v>1.2537526004403035E-2</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="17"/>
+        <v>0.82335894819254984</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="18"/>
+        <v>1.289286776159552E-2</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="19"/>
+        <v>0.98355746650349851</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="20"/>
+        <v>1.0399281695568948E-2</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="21"/>
+        <v>0.84310010439613348</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="22"/>
+        <v>1.0850061553409555E-2</v>
+      </c>
+      <c r="AT8">
+        <v>0.96469276874893262</v>
+      </c>
+      <c r="AU8">
+        <v>1.2537526004403035E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12221,44 +12963,146 @@
       <c r="D9" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>235.721</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>231.12</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>55.685000000000002</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <v>187.11099999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="10">
         <v>181.17699999999999</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="10">
         <v>183.54900000000001</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <v>240.541</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="11">
         <v>190.72800000000001</v>
       </c>
-      <c r="M9">
-        <v>14.536</v>
-      </c>
-      <c r="N9">
+      <c r="M9" s="11">
+        <v>18.536000000000001</v>
+      </c>
+      <c r="N9" s="12">
         <v>219.78800000000001</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="12">
         <v>198.261</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="12">
         <v>198.797</v>
       </c>
+      <c r="R9" s="13">
+        <f t="shared" si="23"/>
+        <v>8407.3371939614153</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="0"/>
+        <v>109.05057248788968</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="1"/>
+        <v>230.13560613497307</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="2"/>
+        <v>5737.6480485823722</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="3"/>
+        <v>88.406631105425987</v>
+      </c>
+      <c r="W9" s="10">
+        <f t="shared" si="4"/>
+        <v>1155.7302664026724</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="5"/>
+        <v>8693.6299094073074</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="6"/>
+        <v>92.409636086607648</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="7"/>
+        <v>51.954799853223655</v>
+      </c>
+      <c r="AA9" s="12">
+        <f t="shared" si="8"/>
+        <v>7488.1955857876528</v>
+      </c>
+      <c r="AB9" s="12">
+        <f t="shared" si="9"/>
+        <v>95.547327909964125</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="10"/>
+        <v>1287.503727171156</v>
+      </c>
+      <c r="AE9" s="19">
+        <f t="shared" si="11"/>
+        <v>8746.5233725842772</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="12"/>
+        <v>6981.7849460904708</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="13"/>
+        <v>8837.9943453471387</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="14"/>
+        <v>8871.2466408687724</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="15"/>
+        <v>0.96122045706914461</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="16"/>
+        <v>1.2467876417012217E-2</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="17"/>
+        <v>0.82180246067235752</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="18"/>
+        <v>1.2662468378509749E-2</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="19"/>
+        <v>0.98366547541232208</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="20"/>
+        <v>1.0455951030932458E-2</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="21"/>
+        <v>0.84409732802269655</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="22"/>
+        <v>1.0770451073898566E-2</v>
+      </c>
+      <c r="AT9">
+        <v>0.96122045706914461</v>
+      </c>
+      <c r="AU9">
+        <v>1.2467876417012217E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -12271,44 +13115,146 @@
       <c r="D10" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>221.33699999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>219.119</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>46.543999999999997</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>170.13300000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="10">
         <v>165.61799999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="10">
         <v>169.17400000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <v>227.49</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="11">
         <v>174.69800000000001</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="11">
         <v>17.449000000000002</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="12">
         <v>204.45099999999999</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="12">
         <v>178.672</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="12">
         <v>181.506</v>
       </c>
+      <c r="R10" s="13">
+        <f t="shared" si="23"/>
+        <v>7575.7016721956252</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="0"/>
+        <v>104.15165900581619</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="1"/>
+        <v>180.55918733057734</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="2"/>
+        <v>4902.2280991899233</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="3"/>
+        <v>81.822113979641983</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="4"/>
+        <v>1034.988168514137</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="5"/>
+        <v>7927.2535765096418</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="6"/>
+        <v>85.674622260768103</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="7"/>
+        <v>47.875744896853533</v>
+      </c>
+      <c r="AA10" s="12">
+        <f t="shared" si="8"/>
+        <v>6643.6658070383746</v>
+      </c>
+      <c r="AB10" s="12">
+        <f t="shared" si="9"/>
+        <v>87.351969624098231</v>
+      </c>
+      <c r="AC10" s="12">
+        <f t="shared" si="10"/>
+        <v>1138.3596776987949</v>
+      </c>
+      <c r="AE10" s="19">
+        <f t="shared" si="11"/>
+        <v>7860.412518532019</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="12"/>
+        <v>6019.0383816837029</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="13"/>
+        <v>8060.8039436672634</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="14"/>
+        <v>7869.3774543612681</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="15"/>
+        <v>0.96377914700212641</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="16"/>
+        <v>1.3250151790413559E-2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="17"/>
+        <v>0.81445370312103327</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="18"/>
+        <v>1.359388473558029E-2</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="19"/>
+        <v>0.98343212809901648</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="20"/>
+        <v>1.0628545596630703E-2</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="21"/>
+        <v>0.84424286998158982</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="22"/>
+        <v>1.1100238885566115E-2</v>
+      </c>
+      <c r="AT10">
+        <v>0.82776040073637613</v>
+      </c>
+      <c r="AU10">
+        <v>1.2400151246635511E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -12321,44 +13267,146 @@
       <c r="D11" s="6">
         <v>1.278281989006775E-4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>230.98400000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>226.155</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>69.447999999999993</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>183.83199999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>176.97800000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="10">
         <v>179.44200000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <v>238.45</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="11">
         <v>195.18100000000001</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="11">
         <v>78.921999999999997</v>
       </c>
-      <c r="N11">
-        <v>240.852</v>
-      </c>
-      <c r="O11">
-        <v>221.16900000000001</v>
-      </c>
-      <c r="P11">
-        <v>213.89</v>
+      <c r="N11" s="12">
+        <v>205.45099999999999</v>
+      </c>
+      <c r="O11" s="12">
+        <v>176.672</v>
+      </c>
+      <c r="P11" s="12">
+        <v>181.506</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="23"/>
+        <v>8129.6815415855363</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="0"/>
+        <v>107.02817969490349</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="1"/>
+        <v>310.28846615538856</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="2"/>
+        <v>5572.266075562522</v>
+      </c>
+      <c r="V11" s="10">
+        <f t="shared" si="3"/>
+        <v>86.637601741296251</v>
+      </c>
+      <c r="W11" s="10">
+        <f t="shared" si="4"/>
+        <v>1120.8804870890715</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="5"/>
+        <v>8568.9655666675044</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="6"/>
+        <v>94.266451347080505</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="7"/>
+        <v>368.90029750000571</v>
+      </c>
+      <c r="AA11" s="12">
+        <f t="shared" si="8"/>
+        <v>6697.5085026550914</v>
+      </c>
+      <c r="AB11" s="12">
+        <f t="shared" si="9"/>
+        <v>86.50845969168509</v>
+      </c>
+      <c r="AC11" s="12">
+        <f t="shared" si="10"/>
+        <v>1138.3596776987949</v>
+      </c>
+      <c r="AE11" s="19">
+        <f t="shared" si="11"/>
+        <v>8546.9981874358291</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="12"/>
+        <v>6779.7841643928896</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="13"/>
+        <v>9032.132315514591</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="14"/>
+        <v>7922.3766400455715</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="15"/>
+        <v>0.95117389325485613</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="16"/>
+        <v>1.2522312202222758E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="17"/>
+        <v>0.8218943170533074</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="18"/>
+        <v>1.2778814139292648E-2</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="19"/>
+        <v>0.94872011030534842</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="20"/>
+        <v>1.0436788130877801E-2</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="21"/>
+        <v>0.84539132724401322</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="22"/>
+        <v>1.0919508579585466E-2</v>
+      </c>
+      <c r="AT11">
+        <v>0.8311087841077065</v>
+      </c>
+      <c r="AU11">
+        <v>1.1958201578491087E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -12371,8 +13419,146 @@
       <c r="D12" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E12" s="9">
+        <v>221.096</v>
+      </c>
+      <c r="F12" s="9">
+        <v>218.22499999999999</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45.460999999999999</v>
+      </c>
+      <c r="H12" s="10">
+        <v>161.83199999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>159.56299999999999</v>
+      </c>
+      <c r="J12" s="10">
+        <v>165.197</v>
+      </c>
+      <c r="K12" s="11">
+        <v>226.91300000000001</v>
+      </c>
+      <c r="L12" s="11">
+        <v>174.52</v>
+      </c>
+      <c r="M12" s="11">
+        <v>15.928000000000001</v>
+      </c>
+      <c r="N12" s="12">
+        <v>202.33799999999999</v>
+      </c>
+      <c r="O12" s="12">
+        <v>180.083</v>
+      </c>
+      <c r="P12" s="12">
+        <v>181.67599999999999</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="23"/>
+        <v>7562.0606973299937</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="0"/>
+        <v>103.78526077018385</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="1"/>
+        <v>174.89828308592993</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="2"/>
+        <v>4512.8951055919688</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="3"/>
+        <v>79.23691353475752</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="4"/>
+        <v>1002.2058128609474</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="5"/>
+        <v>7894.0190189964751</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="6"/>
+        <v>85.59936956247023</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="7"/>
+        <v>42.317905773777447</v>
+      </c>
+      <c r="AA12" s="12">
+        <f t="shared" si="8"/>
+        <v>6530.4623559421307</v>
+      </c>
+      <c r="AB12" s="12">
+        <f t="shared" si="9"/>
+        <v>87.946281592098501</v>
+      </c>
+      <c r="AC12" s="12">
+        <f t="shared" si="10"/>
+        <v>1139.8024806082035</v>
+      </c>
+      <c r="AE12" s="19">
+        <f t="shared" si="11"/>
+        <v>7840.7442411861066</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" si="12"/>
+        <v>5594.3378319876738</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="13"/>
+        <v>8021.9362943327224</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" si="14"/>
+        <v>7758.2111181424334</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="15"/>
+        <v>0.96445700366143361</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="16"/>
+        <v>1.3236659375396712E-2</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="17"/>
+        <v>0.80668977118039598</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="18"/>
+        <v>1.4163769853456376E-2</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="19"/>
+        <v>0.98405406492362479</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="20"/>
+        <v>1.0670661847931133E-2</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="21"/>
+        <v>0.84174847223102311</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="22"/>
+        <v>1.1335896929440054E-2</v>
+      </c>
+      <c r="AT12">
+        <v>0.82370708946050275</v>
+      </c>
+      <c r="AU12">
+        <v>1.2742097406076533E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -12385,8 +13571,146 @@
       <c r="D13" s="6">
         <v>1.278281989006775E-4</v>
       </c>
+      <c r="E13" s="9">
+        <v>216.863</v>
+      </c>
+      <c r="F13" s="9">
+        <v>216.22200000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45.462000000000003</v>
+      </c>
+      <c r="H13" s="10">
+        <v>159.48400000000001</v>
+      </c>
+      <c r="I13" s="10">
+        <v>157.03899999999999</v>
+      </c>
+      <c r="J13" s="10">
+        <v>165.08099999999999</v>
+      </c>
+      <c r="K13" s="11">
+        <v>221.21299999999999</v>
+      </c>
+      <c r="L13" s="11">
+        <v>168.20099999999999</v>
+      </c>
+      <c r="M13" s="11">
+        <v>15.098000000000001</v>
+      </c>
+      <c r="N13" s="12">
+        <v>198.61699999999999</v>
+      </c>
+      <c r="O13" s="12">
+        <v>176.56800000000001</v>
+      </c>
+      <c r="P13" s="12">
+        <v>183.613</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="23"/>
+        <v>7324.0551977021414</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="0"/>
+        <v>102.96359476855588</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="1"/>
+        <v>174.90348838928327</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" si="2"/>
+        <v>4405.0914718893264</v>
+      </c>
+      <c r="V13" s="10">
+        <f t="shared" si="3"/>
+        <v>78.155308764466056</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" si="4"/>
+        <v>1001.2537695404727</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="5"/>
+        <v>7568.6818649065162</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="6"/>
+        <v>82.920942610650258</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="7"/>
+        <v>39.362074288816679</v>
+      </c>
+      <c r="AA13" s="12">
+        <f t="shared" si="8"/>
+        <v>6332.9864674107421</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" si="9"/>
+        <v>86.464561250125527</v>
+      </c>
+      <c r="AC13" s="12">
+        <f t="shared" si="10"/>
+        <v>1156.2755330819716</v>
+      </c>
+      <c r="AE13" s="19">
+        <f t="shared" si="11"/>
+        <v>7601.9222808599807</v>
+      </c>
+      <c r="AF13" s="10">
+        <f t="shared" si="12"/>
+        <v>5484.5005501942651</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" si="13"/>
+        <v>7690.9648818059832</v>
+      </c>
+      <c r="AH13" s="12">
+        <f t="shared" si="14"/>
+        <v>7575.7265617428393</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="15"/>
+        <v>0.9634477869028667</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="16"/>
+        <v>1.3544415604957743E-2</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="17"/>
+        <v>0.80318917494379594</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="18"/>
+        <v>1.4250214408620624E-2</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="19"/>
+        <v>0.98410043228922495</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="20"/>
+        <v>1.0781604634135173E-2</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="21"/>
+        <v>0.83595763598334027</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="22"/>
+        <v>1.1413368809635846E-2</v>
+      </c>
+      <c r="AT13">
+        <v>0.82335894819254984</v>
+      </c>
+      <c r="AU13">
+        <v>1.289286776159552E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -12398,10 +13722,3855 @@
       </c>
       <c r="D14" s="6">
         <v>1.278281989006775E-4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>215.435</v>
+      </c>
+      <c r="F14" s="9">
+        <v>214.35400000000001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45.466999999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="I14" s="10">
+        <v>159.22999999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <v>166.23599999999999</v>
+      </c>
+      <c r="K14" s="11">
+        <v>219.60599999999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>168.935</v>
+      </c>
+      <c r="M14" s="11">
+        <v>15.994999999999999</v>
+      </c>
+      <c r="N14" s="12">
+        <v>199.78299999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>177.541</v>
+      </c>
+      <c r="P14" s="12">
+        <v>182.399</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="23"/>
+        <v>7244.4445169960081</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="0"/>
+        <v>102.19636116481117</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="1"/>
+        <v>174.92951551230692</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="2"/>
+        <v>4580.8180864868636</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" si="3"/>
+        <v>79.094349676620126</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="4"/>
+        <v>1010.7436780327881</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="5"/>
+        <v>7477.9404555316087</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="6"/>
+        <v>83.232765801359136</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="7"/>
+        <v>42.558928249649064</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" si="8"/>
+        <v>6394.6087372258953</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="9"/>
+        <v>86.875125783544334</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="10"/>
+        <v>1145.9439573738234</v>
+      </c>
+      <c r="AE14" s="19">
+        <f t="shared" si="11"/>
+        <v>7521.570393673127</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="12"/>
+        <v>5670.656114196272</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="13"/>
+        <v>7603.7321495826172</v>
+      </c>
+      <c r="AH14" s="12">
+        <f t="shared" si="14"/>
+        <v>7627.4278203832637</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="15"/>
+        <v>0.96315584882244443</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="16"/>
+        <v>1.3587104263595677E-2</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="17"/>
+        <v>0.80781094713519297</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="18"/>
+        <v>1.3948006735695087E-2</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="19"/>
+        <v>0.98345658532199698</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="20"/>
+        <v>1.0946304283736235E-2</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="21"/>
+        <v>0.83837027210367998</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="22"/>
+        <v>1.1389832566016866E-2</v>
+      </c>
+      <c r="AT14">
+        <v>0.82180246067235752</v>
+      </c>
+      <c r="AU14">
+        <v>1.2662468378509749E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="12"/>
+      <c r="AT15">
+        <v>0.98255639506209869</v>
+      </c>
+      <c r="AU15">
+        <v>1.0355142116385925E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="12"/>
+      <c r="AT16">
+        <v>0.95437304048729577</v>
+      </c>
+      <c r="AU16">
+        <v>1.0325395442951342E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="12"/>
+      <c r="AT17">
+        <v>0.98400409376615472</v>
+      </c>
+      <c r="AU17">
+        <v>1.0417257396641672E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="12"/>
+      <c r="AT18">
+        <v>0.98355746650349851</v>
+      </c>
+      <c r="AU18">
+        <v>1.0399281695568948E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="W19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="12"/>
+      <c r="AT19">
+        <v>0.98528889557826282</v>
+      </c>
+      <c r="AU19">
+        <v>1.047320730573522E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AE20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="12"/>
+      <c r="AT20">
+        <v>0.84840792533398113</v>
+      </c>
+      <c r="AU20">
+        <v>1.0580303180082594E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT21">
+        <v>0.85061465317627871</v>
+      </c>
+      <c r="AU21">
+        <v>1.0143253562776575E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>64.497</v>
+      </c>
+      <c r="F22" s="9">
+        <v>48.737000000000002</v>
+      </c>
+      <c r="G22" s="9">
+        <v>18.018999999999998</v>
+      </c>
+      <c r="H22" s="15">
+        <v>38.369</v>
+      </c>
+      <c r="I22" s="15">
+        <v>28.007999999999999</v>
+      </c>
+      <c r="J22" s="15">
+        <v>21.481000000000002</v>
+      </c>
+      <c r="K22" s="16">
+        <v>59.654000000000003</v>
+      </c>
+      <c r="L22" s="16">
+        <v>38.581000000000003</v>
+      </c>
+      <c r="M22" s="16">
+        <v>9.4339999999999993</v>
+      </c>
+      <c r="N22" s="17">
+        <v>55.264000000000003</v>
+      </c>
+      <c r="O22" s="17">
+        <v>37.921999999999997</v>
+      </c>
+      <c r="P22" s="17">
+        <v>28.2</v>
+      </c>
+      <c r="R22" s="13">
+        <f>POWER(E22,1.6543)</f>
+        <v>985.19277606060132</v>
+      </c>
+      <c r="S22" s="13">
+        <f>POWER(F22,0.862)</f>
+        <v>28.505868628770024</v>
+      </c>
+      <c r="T22" s="13">
+        <f>POWER(G22,1.353)</f>
+        <v>50.003869972129216</v>
+      </c>
+      <c r="U22" s="10">
+        <f>POWER(H22,1.6543)</f>
+        <v>417.23324812404388</v>
+      </c>
+      <c r="V22" s="10">
+        <f>POWER(I22,0.862)</f>
+        <v>17.683049728830234</v>
+      </c>
+      <c r="W22" s="10">
+        <f>POWER(J22,1.353)</f>
+        <v>63.426351772346173</v>
+      </c>
+      <c r="X22" s="11">
+        <f>POWER(K22,1.6543)</f>
+        <v>865.84577171767</v>
+      </c>
+      <c r="Y22" s="11">
+        <f>POWER(L22,0.862)</f>
+        <v>23.305259328166027</v>
+      </c>
+      <c r="Z22" s="11">
+        <f>POWER(M22,1.353)</f>
+        <v>20.833561293833306</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>POWER(N22,1.6543)</f>
+        <v>762.99610891977204</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>POWER(O22,0.862)</f>
+        <v>22.961710845302598</v>
+      </c>
+      <c r="AC22" s="12">
+        <f>POWER(P22,1.353)</f>
+        <v>91.661517634273295</v>
+      </c>
+      <c r="AE22" s="19">
+        <f t="shared" si="11"/>
+        <v>1063.7025146615006</v>
+      </c>
+      <c r="AF22" s="10">
+        <f t="shared" si="12"/>
+        <v>498.34264962522025</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="13"/>
+        <v>909.98459233966935</v>
+      </c>
+      <c r="AH22" s="12">
+        <f t="shared" si="14"/>
+        <v>877.61933739934796</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="15"/>
+        <v>0.92619201560702968</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="16"/>
+        <v>2.6798722608869056E-2</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="17"/>
+        <v>0.83724170194508762</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="18"/>
+        <v>3.5483717362198103E-2</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="19"/>
+        <v>0.95149498025179347</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="20"/>
+        <v>2.5610608711786723E-2</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="21"/>
+        <v>0.86939300036478318</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="22"/>
+        <v>2.6163633669860905E-2</v>
+      </c>
+      <c r="AT22">
+        <v>0.84643186852345109</v>
+      </c>
+      <c r="AU22">
+        <v>1.0639863755655399E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>70.349000000000004</v>
+      </c>
+      <c r="F23" s="9">
+        <v>54.097999999999999</v>
+      </c>
+      <c r="G23" s="9">
+        <v>21.13</v>
+      </c>
+      <c r="H23" s="15">
+        <v>42.290999999999997</v>
+      </c>
+      <c r="I23" s="15">
+        <v>31.382000000000001</v>
+      </c>
+      <c r="J23" s="15">
+        <v>24.417999999999999</v>
+      </c>
+      <c r="K23" s="16">
+        <v>66.12</v>
+      </c>
+      <c r="L23" s="16">
+        <v>43.201000000000001</v>
+      </c>
+      <c r="M23" s="16">
+        <v>11.579000000000001</v>
+      </c>
+      <c r="N23" s="17">
+        <v>60.08</v>
+      </c>
+      <c r="O23" s="17">
+        <v>41.594000000000001</v>
+      </c>
+      <c r="P23" s="17">
+        <v>31.568000000000001</v>
+      </c>
+      <c r="R23" s="13">
+        <f>POWER(E23,1.6543)</f>
+        <v>1137.4145798819573</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" ref="S23:S31" si="24">POWER(F23,0.862)</f>
+        <v>31.18905402423178</v>
+      </c>
+      <c r="T23" s="13">
+        <f t="shared" ref="T23:T31" si="25">POWER(G23,1.353)</f>
+        <v>62.028177288108267</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" ref="U23:U31" si="26">POWER(H23,1.6543)</f>
+        <v>490.11951046922195</v>
+      </c>
+      <c r="V23" s="10">
+        <f t="shared" ref="V23:V31" si="27">POWER(I23,0.862)</f>
+        <v>19.504673858048996</v>
+      </c>
+      <c r="W23" s="10">
+        <f t="shared" ref="W23:W31" si="28">POWER(J23,1.353)</f>
+        <v>75.43480134118569</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" ref="X23:X31" si="29">POWER(K23,1.6543)</f>
+        <v>1026.5417695319245</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" ref="Y23:Y31" si="30">POWER(L23,0.862)</f>
+        <v>25.69186642719659</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" ref="Z23:Z31" si="31">POWER(M23,1.353)</f>
+        <v>27.48824012485683</v>
+      </c>
+      <c r="AA23" s="12">
+        <f t="shared" ref="AA23:AA31" si="32">POWER(N23,1.6543)</f>
+        <v>876.09845260020563</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" ref="AB23:AB31" si="33">POWER(O23,0.862)</f>
+        <v>24.865915449869714</v>
+      </c>
+      <c r="AC23" s="12">
+        <f t="shared" ref="AC23:AC31" si="34">POWER(P23,1.353)</f>
+        <v>106.77787726717699</v>
+      </c>
+      <c r="AE23" s="19">
+        <f t="shared" si="11"/>
+        <v>1230.6318111942974</v>
+      </c>
+      <c r="AF23" s="10">
+        <f t="shared" si="12"/>
+        <v>585.05898566845667</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="13"/>
+        <v>1079.721876083978</v>
+      </c>
+      <c r="AH23" s="12">
+        <f t="shared" si="14"/>
+        <v>1007.7422453172524</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="15"/>
+        <v>0.92425254209715646</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="16"/>
+        <v>2.5343936131444207E-2</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="17"/>
+        <v>0.83772666085837133</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="18"/>
+        <v>3.3337961360877168E-2</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="19"/>
+        <v>0.95074647672701473</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="20"/>
+        <v>2.3794892922219854E-2</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="21"/>
+        <v>0.86936759540570485</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="22"/>
+        <v>2.4674876502812037E-2</v>
+      </c>
+      <c r="AT23">
+        <v>0.84310010439613348</v>
+      </c>
+      <c r="AU23">
+        <v>1.0850061553409555E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>77.287999999999997</v>
+      </c>
+      <c r="F24" s="9">
+        <v>59.25</v>
+      </c>
+      <c r="G24" s="9">
+        <v>24.367999999999999</v>
+      </c>
+      <c r="H24" s="15">
+        <v>41.441000000000003</v>
+      </c>
+      <c r="I24" s="15">
+        <v>32.113</v>
+      </c>
+      <c r="J24" s="15">
+        <v>28.181000000000001</v>
+      </c>
+      <c r="K24" s="16">
+        <v>71.438999999999993</v>
+      </c>
+      <c r="L24" s="16">
+        <v>47.485999999999997</v>
+      </c>
+      <c r="M24" s="16">
+        <v>13.244</v>
+      </c>
+      <c r="N24" s="17">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="O24" s="17">
+        <v>45.448</v>
+      </c>
+      <c r="P24" s="17">
+        <v>34.125999999999998</v>
+      </c>
+      <c r="R24" s="13">
+        <f t="shared" ref="R24:R31" si="35">POWER(E24,1.6543)</f>
+        <v>1328.9351725225604</v>
+      </c>
+      <c r="S24" s="13">
+        <f t="shared" si="24"/>
+        <v>33.733186060259378</v>
+      </c>
+      <c r="T24" s="13">
+        <f t="shared" si="25"/>
+        <v>75.225885003156407</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="26"/>
+        <v>473.93068028498345</v>
+      </c>
+      <c r="V24" s="10">
+        <f t="shared" si="27"/>
+        <v>19.895685991451604</v>
+      </c>
+      <c r="W24" s="10">
+        <f t="shared" si="28"/>
+        <v>91.577969322907762</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" si="29"/>
+        <v>1166.7163315552393</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" si="30"/>
+        <v>27.874015487175996</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="31"/>
+        <v>32.967949769904081</v>
+      </c>
+      <c r="AA24" s="12">
+        <f t="shared" si="32"/>
+        <v>993.36817654738479</v>
+      </c>
+      <c r="AB24" s="12">
+        <f t="shared" si="33"/>
+        <v>26.839704940005284</v>
+      </c>
+      <c r="AC24" s="12">
+        <f t="shared" si="34"/>
+        <v>118.64912174187761</v>
+      </c>
+      <c r="AE24" s="19">
+        <f t="shared" si="11"/>
+        <v>1437.8942435859763</v>
+      </c>
+      <c r="AF24" s="10">
+        <f t="shared" si="12"/>
+        <v>585.40433559934286</v>
+      </c>
+      <c r="AG24" s="11">
+        <f t="shared" si="13"/>
+        <v>1227.5582968123194</v>
+      </c>
+      <c r="AH24" s="12">
+        <f t="shared" si="14"/>
+        <v>1138.8570032292678</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="15"/>
+        <v>0.92422316762901702</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="16"/>
+        <v>2.3460130124821912E-2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="17"/>
+        <v>0.80957835715338267</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="18"/>
+        <v>3.3986229314619268E-2</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="19"/>
+        <v>0.95043659807027303</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="20"/>
+        <v>2.2706877188283656E-2</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="21"/>
+        <v>0.87225013652342265</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="22"/>
+        <v>2.3567230006840533E-2</v>
+      </c>
+      <c r="AT24">
+        <v>0.84409732802269655</v>
+      </c>
+      <c r="AU24">
+        <v>1.0770451073898566E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>99</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>66.141000000000005</v>
+      </c>
+      <c r="F25" s="9">
+        <v>53.296999999999997</v>
+      </c>
+      <c r="G25" s="9">
+        <v>23.873000000000001</v>
+      </c>
+      <c r="H25" s="15">
+        <v>37.914000000000001</v>
+      </c>
+      <c r="I25" s="15">
+        <v>30.457999999999998</v>
+      </c>
+      <c r="J25" s="15">
+        <v>26.568999999999999</v>
+      </c>
+      <c r="K25" s="16">
+        <v>61.670999999999999</v>
+      </c>
+      <c r="L25" s="16">
+        <v>42.603000000000002</v>
+      </c>
+      <c r="M25" s="16">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="N25" s="17">
+        <v>56.4</v>
+      </c>
+      <c r="O25" s="17">
+        <v>41.448999999999998</v>
+      </c>
+      <c r="P25" s="17">
+        <v>30.297999999999998</v>
+      </c>
+      <c r="R25" s="13">
+        <f t="shared" si="35"/>
+        <v>1027.0811838448808</v>
+      </c>
+      <c r="S25" s="13">
+        <f t="shared" si="24"/>
+        <v>30.790573818396336</v>
+      </c>
+      <c r="T25" s="13">
+        <f t="shared" si="25"/>
+        <v>73.165807208161539</v>
+      </c>
+      <c r="U25" s="10">
+        <f t="shared" si="26"/>
+        <v>409.07994396559059</v>
+      </c>
+      <c r="V25" s="10">
+        <f t="shared" si="27"/>
+        <v>19.008620120644412</v>
+      </c>
+      <c r="W25" s="10">
+        <f t="shared" si="28"/>
+        <v>84.562858967666202</v>
+      </c>
+      <c r="X25" s="11">
+        <f t="shared" si="29"/>
+        <v>914.81016728887789</v>
+      </c>
+      <c r="Y25" s="11">
+        <f t="shared" si="30"/>
+        <v>25.385015739008288</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" si="31"/>
+        <v>34.741581920817318</v>
+      </c>
+      <c r="AA25" s="12">
+        <f t="shared" si="32"/>
+        <v>789.11631353767837</v>
+      </c>
+      <c r="AB25" s="12">
+        <f t="shared" si="33"/>
+        <v>24.791175358580517</v>
+      </c>
+      <c r="AC25" s="12">
+        <f t="shared" si="34"/>
+        <v>101.00737612901629</v>
+      </c>
+      <c r="AE25" s="19">
+        <f t="shared" si="11"/>
+        <v>1131.0375648714387</v>
+      </c>
+      <c r="AF25" s="10">
+        <f t="shared" si="12"/>
+        <v>512.65142305390123</v>
+      </c>
+      <c r="AG25" s="11">
+        <f t="shared" si="13"/>
+        <v>974.93676494870351</v>
+      </c>
+      <c r="AH25" s="12">
+        <f t="shared" si="14"/>
+        <v>914.91486502527516</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="15"/>
+        <v>0.90808759650845527</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="16"/>
+        <v>2.7223299008549022E-2</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="17"/>
+        <v>0.79796900109761149</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="18"/>
+        <v>3.7079035121776703E-2</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="19"/>
+        <v>0.93832769486030287</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="20"/>
+        <v>2.6037602285255829E-2</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="21"/>
+        <v>0.86250245099676948</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="22"/>
+        <v>2.7096701896843312E-2</v>
+      </c>
+      <c r="AT25">
+        <v>0.92619201560702968</v>
+      </c>
+      <c r="AU25">
+        <v>2.6798722608869056E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>99</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>63.847999999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>51.930999999999997</v>
+      </c>
+      <c r="G26" s="9">
+        <v>25</v>
+      </c>
+      <c r="H26" s="15">
+        <v>36.076000000000001</v>
+      </c>
+      <c r="I26" s="15">
+        <v>29.081</v>
+      </c>
+      <c r="J26" s="15">
+        <v>26.11</v>
+      </c>
+      <c r="K26" s="16">
+        <v>63.738999999999997</v>
+      </c>
+      <c r="L26" s="16">
+        <v>44.259</v>
+      </c>
+      <c r="M26" s="16">
+        <v>12.743</v>
+      </c>
+      <c r="N26" s="17">
+        <v>50.427999999999997</v>
+      </c>
+      <c r="O26" s="17">
+        <v>30.358000000000001</v>
+      </c>
+      <c r="P26" s="17">
+        <v>26.536999999999999</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="35"/>
+        <v>968.84694629801993</v>
+      </c>
+      <c r="S26" s="13">
+        <f t="shared" si="24"/>
+        <v>30.109102003322185</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" si="25"/>
+        <v>77.877648880553309</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="26"/>
+        <v>376.79606888231251</v>
+      </c>
+      <c r="V26" s="10">
+        <f t="shared" si="27"/>
+        <v>18.26548666291486</v>
+      </c>
+      <c r="W26" s="10">
+        <f t="shared" si="28"/>
+        <v>82.592326096310785</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="29"/>
+        <v>966.11226970117809</v>
+      </c>
+      <c r="Y26" s="11">
+        <f t="shared" si="30"/>
+        <v>26.233327237887959</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="31"/>
+        <v>31.29194708970206</v>
+      </c>
+      <c r="AA26" s="12">
+        <f t="shared" si="32"/>
+        <v>655.7372671244168</v>
+      </c>
+      <c r="AB26" s="12">
+        <f t="shared" si="33"/>
+        <v>18.954811114292678</v>
+      </c>
+      <c r="AC26" s="12">
+        <f t="shared" si="34"/>
+        <v>84.425087314995437</v>
+      </c>
+      <c r="AE26" s="19">
+        <f t="shared" si="11"/>
+        <v>1076.8336971818953</v>
+      </c>
+      <c r="AF26" s="10">
+        <f t="shared" si="12"/>
+        <v>477.65388164153813</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" si="13"/>
+        <v>1023.637544028768</v>
+      </c>
+      <c r="AH26" s="12">
+        <f t="shared" si="14"/>
+        <v>759.11716555370481</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="15"/>
+        <v>0.89971826553489198</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="16"/>
+        <v>2.7960772477791666E-2</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="17"/>
+        <v>0.78884749682634059</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="18"/>
+        <v>3.8240004666438454E-2</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="19"/>
+        <v>0.94380308277753699</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="20"/>
+        <v>2.5627554783346929E-2</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="21"/>
+        <v>0.8638156227782281</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="22"/>
+        <v>2.4969546170737583E-2</v>
+      </c>
+      <c r="AT26">
+        <v>0.92425254209715646</v>
+      </c>
+      <c r="AU26">
+        <v>2.5343936131444207E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>75.981999999999999</v>
+      </c>
+      <c r="F27" s="9">
+        <v>75.317999999999998</v>
+      </c>
+      <c r="G27" s="9">
+        <v>31.669</v>
+      </c>
+      <c r="H27" s="15">
+        <v>35.003999999999998</v>
+      </c>
+      <c r="I27" s="15">
+        <v>29.824999999999999</v>
+      </c>
+      <c r="J27" s="15">
+        <v>27.905000000000001</v>
+      </c>
+      <c r="K27" s="16">
+        <v>59.122999999999998</v>
+      </c>
+      <c r="L27" s="16">
+        <v>42.371000000000002</v>
+      </c>
+      <c r="M27" s="16">
+        <v>16.628</v>
+      </c>
+      <c r="N27" s="17">
+        <v>50.581000000000003</v>
+      </c>
+      <c r="O27" s="17">
+        <v>49.567</v>
+      </c>
+      <c r="P27" s="17">
+        <v>45.991</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="35"/>
+        <v>1291.991765067293</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="24"/>
+        <v>41.484584788628965</v>
+      </c>
+      <c r="T27" s="13">
+        <f t="shared" si="25"/>
+        <v>107.24036305776099</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="26"/>
+        <v>358.45436231910924</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="27"/>
+        <v>18.66759413062951</v>
+      </c>
+      <c r="W27" s="10">
+        <f t="shared" si="28"/>
+        <v>90.366566679687452</v>
+      </c>
+      <c r="X27" s="11">
+        <f t="shared" si="29"/>
+        <v>853.13295120762041</v>
+      </c>
+      <c r="Y27" s="11">
+        <f t="shared" si="30"/>
+        <v>25.265810320104595</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="31"/>
+        <v>44.853521062179951</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" si="32"/>
+        <v>659.03180520400565</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" si="33"/>
+        <v>28.923846686725486</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="34"/>
+        <v>177.66274572404842</v>
+      </c>
+      <c r="AE27" s="19">
+        <f t="shared" si="11"/>
+        <v>1440.7167129136831</v>
+      </c>
+      <c r="AF27" s="10">
+        <f t="shared" si="12"/>
+        <v>467.4885231294262</v>
+      </c>
+      <c r="AG27" s="11">
+        <f t="shared" si="13"/>
+        <v>923.25228258990501</v>
+      </c>
+      <c r="AH27" s="12">
+        <f t="shared" si="14"/>
+        <v>865.6183976147795</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="15"/>
+        <v>0.89677016549241595</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="16"/>
+        <v>2.8794407961528528E-2</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="17"/>
+        <v>0.76676612276932754</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="18"/>
+        <v>3.9931662932955699E-2</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="19"/>
+        <v>0.92405181909154233</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="20"/>
+        <v>2.7366095699464729E-2</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="21"/>
+        <v>0.76134218845160251</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="22"/>
+        <v>3.3414084966799977E-2</v>
+      </c>
+      <c r="AT27">
+        <v>0.92422316762901702</v>
+      </c>
+      <c r="AU27">
+        <v>2.3460130124821912E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>75.986999999999995</v>
+      </c>
+      <c r="F28" s="9">
+        <v>78.153999999999996</v>
+      </c>
+      <c r="G28" s="9">
+        <v>29.669</v>
+      </c>
+      <c r="H28" s="15">
+        <v>29.931999999999999</v>
+      </c>
+      <c r="I28" s="15">
+        <v>32.481000000000002</v>
+      </c>
+      <c r="J28" s="15">
+        <v>33.1</v>
+      </c>
+      <c r="K28" s="16">
+        <v>55.905999999999999</v>
+      </c>
+      <c r="L28" s="16">
+        <v>42.81</v>
+      </c>
+      <c r="M28" s="16">
+        <v>17.965</v>
+      </c>
+      <c r="N28" s="17">
+        <v>45.860999999999997</v>
+      </c>
+      <c r="O28" s="17">
+        <v>47.103999999999999</v>
+      </c>
+      <c r="P28" s="17">
+        <v>44.45</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="35"/>
+        <v>1292.132416010252</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="24"/>
+        <v>42.827620283332315</v>
+      </c>
+      <c r="T28" s="13">
+        <f t="shared" si="25"/>
+        <v>98.180634696027326</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" si="26"/>
+        <v>276.67591123630535</v>
+      </c>
+      <c r="V28" s="10">
+        <f t="shared" si="27"/>
+        <v>20.092063195376653</v>
+      </c>
+      <c r="W28" s="10">
+        <f t="shared" si="28"/>
+        <v>113.84849019443797</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="29"/>
+        <v>777.71498049497222</v>
+      </c>
+      <c r="Y28" s="11">
+        <f t="shared" si="30"/>
+        <v>25.491300134985345</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="31"/>
+        <v>49.801225592806475</v>
+      </c>
+      <c r="AA28" s="12">
+        <f t="shared" si="32"/>
+        <v>560.43598826495167</v>
+      </c>
+      <c r="AB28" s="12">
+        <f t="shared" si="33"/>
+        <v>27.680620010385134</v>
+      </c>
+      <c r="AC28" s="12">
+        <f t="shared" si="34"/>
+        <v>169.65649810989899</v>
+      </c>
+      <c r="AE28" s="19">
+        <f t="shared" si="11"/>
+        <v>1433.1406709896116</v>
+      </c>
+      <c r="AF28" s="10">
+        <f t="shared" si="12"/>
+        <v>410.61646462611998</v>
+      </c>
+      <c r="AG28" s="11">
+        <f t="shared" si="13"/>
+        <v>853.00750622276405</v>
+      </c>
+      <c r="AH28" s="12">
+        <f t="shared" si="14"/>
+        <v>757.77310638523579</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="15"/>
+        <v>0.9016089223942052</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="16"/>
+        <v>2.9883751923500297E-2</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="17"/>
+        <v>0.67380617941910348</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="18"/>
+        <v>4.8931460197708214E-2</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="19"/>
+        <v>0.91173286849350532</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="20"/>
+        <v>2.9884027923581084E-2</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="21"/>
+        <v>0.73958284286225107</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="22"/>
+        <v>3.6528902618923102E-2</v>
+      </c>
+      <c r="AT28">
+        <v>0.90808759650845527</v>
+      </c>
+      <c r="AU28">
+        <v>2.7223299008549022E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>74.159000000000006</v>
+      </c>
+      <c r="F29" s="9">
+        <v>74.665000000000006</v>
+      </c>
+      <c r="G29" s="9">
+        <v>28.692</v>
+      </c>
+      <c r="H29" s="15">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="I29" s="15">
+        <v>35.243000000000002</v>
+      </c>
+      <c r="J29" s="15">
+        <v>34.683999999999997</v>
+      </c>
+      <c r="K29" s="16">
+        <v>61.154000000000003</v>
+      </c>
+      <c r="L29" s="16">
+        <v>44.338000000000001</v>
+      </c>
+      <c r="M29" s="16">
+        <v>18.896999999999998</v>
+      </c>
+      <c r="N29" s="17">
+        <v>46.133000000000003</v>
+      </c>
+      <c r="O29" s="17">
+        <v>45.04</v>
+      </c>
+      <c r="P29" s="17">
+        <v>42.804000000000002</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="35"/>
+        <v>1241.1151635755355</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="24"/>
+        <v>41.174365354738995</v>
+      </c>
+      <c r="T29" s="13">
+        <f t="shared" si="25"/>
+        <v>93.831874495302685</v>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" si="26"/>
+        <v>313.33299394198059</v>
+      </c>
+      <c r="V29" s="10">
+        <f t="shared" si="27"/>
+        <v>21.556428792893694</v>
+      </c>
+      <c r="W29" s="10">
+        <f t="shared" si="28"/>
+        <v>121.28156076328649</v>
+      </c>
+      <c r="X29" s="11">
+        <f t="shared" si="29"/>
+        <v>902.15811634220927</v>
+      </c>
+      <c r="Y29" s="11">
+        <f t="shared" si="30"/>
+        <v>26.273685520881173</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="31"/>
+        <v>53.328521552427887</v>
+      </c>
+      <c r="AA29" s="12">
+        <f t="shared" si="32"/>
+        <v>565.94542178785559</v>
+      </c>
+      <c r="AB29" s="12">
+        <f t="shared" si="33"/>
+        <v>26.631878765818502</v>
+      </c>
+      <c r="AC29" s="12">
+        <f t="shared" si="34"/>
+        <v>161.21235893918919</v>
+      </c>
+      <c r="AE29" s="19">
+        <f t="shared" si="11"/>
+        <v>1376.121403425577</v>
+      </c>
+      <c r="AF29" s="10">
+        <f t="shared" si="12"/>
+        <v>456.17098349816081</v>
+      </c>
+      <c r="AG29" s="11">
+        <f t="shared" si="13"/>
+        <v>981.76032341551831</v>
+      </c>
+      <c r="AH29" s="12">
+        <f t="shared" si="14"/>
+        <v>753.78965949286339</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="15"/>
+        <v>0.90189365595653792</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="16"/>
+        <v>2.9920590764916315E-2</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="17"/>
+        <v>0.68687620492469115</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="18"/>
+        <v>4.725515118823994E-2</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="19"/>
+        <v>0.9189188998834511</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="20"/>
+        <v>2.6761812322457394E-2</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="21"/>
+        <v>0.75080019294588607</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="22"/>
+        <v>3.5330650175986716E-2</v>
+      </c>
+      <c r="AT29">
+        <v>0.89971826553489198</v>
+      </c>
+      <c r="AU29">
+        <v>2.7960772477791666E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>99</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>75.126000000000005</v>
+      </c>
+      <c r="F30" s="9">
+        <v>74.168999999999997</v>
+      </c>
+      <c r="G30" s="9">
+        <v>28.544</v>
+      </c>
+      <c r="H30" s="15">
+        <v>29.04</v>
+      </c>
+      <c r="I30" s="15">
+        <v>31.657</v>
+      </c>
+      <c r="J30" s="15">
+        <v>32.947000000000003</v>
+      </c>
+      <c r="K30" s="16">
+        <v>57.003999999999998</v>
+      </c>
+      <c r="L30" s="16">
+        <v>42.298999999999999</v>
+      </c>
+      <c r="M30" s="16">
+        <v>17.07</v>
+      </c>
+      <c r="N30" s="17">
+        <v>42.466000000000001</v>
+      </c>
+      <c r="O30" s="17">
+        <v>40.523000000000003</v>
+      </c>
+      <c r="P30" s="17">
+        <v>39.543999999999997</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="35"/>
+        <v>1268.0017032918392</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="24"/>
+        <v>40.938481448690794</v>
+      </c>
+      <c r="T30" s="13">
+        <f t="shared" si="25"/>
+        <v>93.177610431152431</v>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="26"/>
+        <v>263.16934240567002</v>
+      </c>
+      <c r="V30" s="10">
+        <f t="shared" si="27"/>
+        <v>19.651917391185247</v>
+      </c>
+      <c r="W30" s="10">
+        <f t="shared" si="28"/>
+        <v>113.13705770738861</v>
+      </c>
+      <c r="X30" s="11">
+        <f t="shared" si="29"/>
+        <v>803.14542489299424</v>
+      </c>
+      <c r="Y30" s="11">
+        <f t="shared" si="30"/>
+        <v>25.228797239701937</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="31"/>
+        <v>46.474203364514366</v>
+      </c>
+      <c r="AA30" s="12">
+        <f t="shared" si="32"/>
+        <v>493.47915711212977</v>
+      </c>
+      <c r="AB30" s="12">
+        <f t="shared" si="33"/>
+        <v>24.31301232375915</v>
+      </c>
+      <c r="AC30" s="12">
+        <f t="shared" si="34"/>
+        <v>144.82717131256427</v>
+      </c>
+      <c r="AE30" s="19">
+        <f t="shared" si="11"/>
+        <v>1402.1177951716825</v>
+      </c>
+      <c r="AF30" s="10">
+        <f t="shared" si="12"/>
+        <v>395.95831750424384</v>
+      </c>
+      <c r="AG30" s="11">
+        <f t="shared" si="13"/>
+        <v>874.84842549721054</v>
+      </c>
+      <c r="AH30" s="12">
+        <f t="shared" si="14"/>
+        <v>662.61934074845317</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="15"/>
+        <v>0.90434748610873927</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="16"/>
+        <v>2.9197604929961023E-2</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="17"/>
+        <v>0.66463900560151612</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="18"/>
+        <v>4.9631278148298069E-2</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="19"/>
+        <v>0.91803951574415343</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="20"/>
+        <v>2.8837906664075465E-2</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="21"/>
+        <v>0.74474004419298523</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="22"/>
+        <v>3.6692276890524657E-2</v>
+      </c>
+      <c r="AT30">
+        <v>0.83724170194508762</v>
+      </c>
+      <c r="AU30">
+        <v>3.5483717362198103E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>76.066000000000003</v>
+      </c>
+      <c r="F31" s="9">
+        <v>73.05</v>
+      </c>
+      <c r="G31" s="9">
+        <v>29.486999999999998</v>
+      </c>
+      <c r="H31" s="15">
+        <v>23.739000000000001</v>
+      </c>
+      <c r="I31" s="15">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="J31" s="15">
+        <v>24.954000000000001</v>
+      </c>
+      <c r="K31" s="16">
+        <v>48.521000000000001</v>
+      </c>
+      <c r="L31" s="16">
+        <v>41.524000000000001</v>
+      </c>
+      <c r="M31" s="16">
+        <v>19.021999999999998</v>
+      </c>
+      <c r="N31" s="17">
+        <v>43.536999999999999</v>
+      </c>
+      <c r="O31" s="17">
+        <v>42.786000000000001</v>
+      </c>
+      <c r="P31" s="17">
+        <v>38.853000000000002</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="35"/>
+        <v>1294.3555045225819</v>
+      </c>
+      <c r="S31" s="13">
+        <f t="shared" si="24"/>
+        <v>40.405513447381622</v>
+      </c>
+      <c r="T31" s="13">
+        <f t="shared" si="25"/>
+        <v>97.366641047570667</v>
+      </c>
+      <c r="U31" s="10">
+        <f t="shared" si="26"/>
+        <v>188.55041044993146</v>
+      </c>
+      <c r="V31" s="10">
+        <f t="shared" si="27"/>
+        <v>16.093038394662408</v>
+      </c>
+      <c r="W31" s="10">
+        <f t="shared" si="28"/>
+        <v>77.68383390492464</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="29"/>
+        <v>615.22443165348454</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="30"/>
+        <v>24.8298385233687</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="31"/>
+        <v>53.806359370424445</v>
+      </c>
+      <c r="AA31" s="12">
+        <f t="shared" si="32"/>
+        <v>514.2373491010602</v>
+      </c>
+      <c r="AB31" s="12">
+        <f t="shared" si="33"/>
+        <v>25.478980947381572</v>
+      </c>
+      <c r="AC31" s="12">
+        <f t="shared" si="34"/>
+        <v>141.41368099828091</v>
+      </c>
+      <c r="AE31" s="19">
+        <f t="shared" si="11"/>
+        <v>1432.1276590175344</v>
+      </c>
+      <c r="AF31" s="10">
+        <f t="shared" si="12"/>
+        <v>282.32728274951853</v>
+      </c>
+      <c r="AG31" s="11">
+        <f t="shared" si="13"/>
+        <v>693.86062954727777</v>
+      </c>
+      <c r="AH31" s="12">
+        <f t="shared" si="14"/>
+        <v>681.13001104672276</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="15"/>
+        <v>0.90379897097339301</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="16"/>
+        <v>2.8213625505355115E-2</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="17"/>
+        <v>0.66784339300716411</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="18"/>
+        <v>5.7001357566070547E-2</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="19"/>
+        <v>0.88666859806543441</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="20"/>
+        <v>3.5785051732318905E-2</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="21"/>
+        <v>0.75497678968925308</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="22"/>
+        <v>3.7406927508930182E-2</v>
+      </c>
+      <c r="AT31">
+        <v>0.83772666085837133</v>
+      </c>
+      <c r="AU31">
+        <v>3.3337961360877168E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="12"/>
+      <c r="AT32">
+        <v>0.84378195635784192</v>
+      </c>
+      <c r="AU32">
+        <v>3.0275282083560309E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="12"/>
+      <c r="AT33">
+        <v>0.79796900109761149</v>
+      </c>
+      <c r="AU33">
+        <v>3.7079035121776703E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="12"/>
+      <c r="AT34">
+        <v>0.78884749682634059</v>
+      </c>
+      <c r="AU34">
+        <v>3.8240004666438454E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="W35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="12"/>
+      <c r="AT35">
+        <v>0.95149498025179347</v>
+      </c>
+      <c r="AU35">
+        <v>2.5610608711786723E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="13"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" s="10"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AE36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ36" s="12"/>
+      <c r="AT36">
+        <v>0.95074647672701473</v>
+      </c>
+      <c r="AU36">
+        <v>2.3794892922219854E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE37" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT37">
+        <v>0.95043659807027303</v>
+      </c>
+      <c r="AU37">
+        <v>2.2706877188283656E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>51.569000000000003</v>
+      </c>
+      <c r="F38" s="9">
+        <v>50.622</v>
+      </c>
+      <c r="G38" s="9">
+        <v>30.550999999999998</v>
+      </c>
+      <c r="H38" s="15">
+        <v>32.692</v>
+      </c>
+      <c r="I38" s="15">
+        <v>33.860999999999997</v>
+      </c>
+      <c r="J38" s="15">
+        <v>34.283999999999999</v>
+      </c>
+      <c r="K38" s="16">
+        <v>53.137999999999998</v>
+      </c>
+      <c r="L38" s="16">
+        <v>46.247</v>
+      </c>
+      <c r="M38" s="16">
+        <v>25.158999999999999</v>
+      </c>
+      <c r="N38" s="17">
+        <v>48.063000000000002</v>
+      </c>
+      <c r="O38" s="17">
+        <v>44.268000000000001</v>
+      </c>
+      <c r="P38" s="17">
+        <v>42.87</v>
+      </c>
+      <c r="R38" s="13">
+        <f>POWER(E38,1.6543)</f>
+        <v>680.46319930870709</v>
+      </c>
+      <c r="S38" s="13">
+        <f>POWER(F38,0.862)</f>
+        <v>29.453741855046825</v>
+      </c>
+      <c r="T38" s="13">
+        <f>POWER(G38,1.353)</f>
+        <v>102.15024370000857</v>
+      </c>
+      <c r="U38" s="10">
+        <f>POWER(H38,1.6543)</f>
+        <v>320.14045460836456</v>
+      </c>
+      <c r="V38" s="10">
+        <f>POWER(I38,0.862)</f>
+        <v>20.825776829849602</v>
+      </c>
+      <c r="W38" s="10">
+        <f>POWER(J38,1.353)</f>
+        <v>119.39297697438487</v>
+      </c>
+      <c r="X38" s="11">
+        <f>POWER(K38,1.6543)</f>
+        <v>715.05233596524988</v>
+      </c>
+      <c r="Y38" s="11">
+        <f>POWER(L38,0.862)</f>
+        <v>27.245954915026633</v>
+      </c>
+      <c r="Z38" s="11">
+        <f>POWER(M38,1.353)</f>
+        <v>78.54854351301266</v>
+      </c>
+      <c r="AA38" s="12">
+        <f>POWER(N38,1.6543)</f>
+        <v>605.64722369619653</v>
+      </c>
+      <c r="AB38" s="12">
+        <f>POWER(O38,0.862)</f>
+        <v>26.237925518404001</v>
+      </c>
+      <c r="AC38" s="12">
+        <f>POWER(P38,1.353)</f>
+        <v>161.54877277306994</v>
+      </c>
+      <c r="AE38" s="19">
+        <f t="shared" si="11"/>
+        <v>812.06718486376246</v>
+      </c>
+      <c r="AF38" s="10">
+        <f t="shared" si="12"/>
+        <v>460.359208412599</v>
+      </c>
+      <c r="AG38" s="11">
+        <f t="shared" si="13"/>
+        <v>820.84683439328921</v>
+      </c>
+      <c r="AH38" s="12">
+        <f t="shared" si="14"/>
+        <v>793.43392198767049</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="15"/>
+        <v>0.83793953504335472</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="16"/>
+        <v>3.627008011657086E-2</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="17"/>
+        <v>0.69541446930597128</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="18"/>
+        <v>4.5238102006606121E-2</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="19"/>
+        <v>0.87111542129996156</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="20"/>
+        <v>3.3192495570948846E-2</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="21"/>
+        <v>0.76332408649602446</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="22"/>
+        <v>3.3068822483256169E-2</v>
+      </c>
+      <c r="AT38">
+        <v>0.93832769486030287</v>
+      </c>
+      <c r="AU38">
+        <v>2.6037602285255829E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E39" s="9">
+        <v>50.886000000000003</v>
+      </c>
+      <c r="F39" s="9">
+        <v>50.011000000000003</v>
+      </c>
+      <c r="G39" s="9">
+        <v>29.895</v>
+      </c>
+      <c r="H39" s="15">
+        <v>32.03</v>
+      </c>
+      <c r="I39" s="15">
+        <v>33.624000000000002</v>
+      </c>
+      <c r="J39" s="15">
+        <v>34.149000000000001</v>
+      </c>
+      <c r="K39" s="16">
+        <v>48.098999999999997</v>
+      </c>
+      <c r="L39" s="16">
+        <v>41.45</v>
+      </c>
+      <c r="M39" s="16">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="N39" s="17">
+        <v>48.249000000000002</v>
+      </c>
+      <c r="O39" s="17">
+        <v>45.554000000000002</v>
+      </c>
+      <c r="P39" s="17">
+        <v>43.771000000000001</v>
+      </c>
+      <c r="R39" s="13">
+        <f>POWER(E39,1.6543)</f>
+        <v>665.61881584143748</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" ref="S39:S47" si="36">POWER(F39,0.862)</f>
+        <v>29.147042504325846</v>
+      </c>
+      <c r="T39" s="13">
+        <f t="shared" ref="T39:T47" si="37">POWER(G39,1.353)</f>
+        <v>99.193873258492019</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" ref="U39:U47" si="38">POWER(H39,1.6543)</f>
+        <v>309.48730815848194</v>
+      </c>
+      <c r="V39" s="10">
+        <f t="shared" ref="V39:V47" si="39">POWER(I39,0.862)</f>
+        <v>20.700067563844282</v>
+      </c>
+      <c r="W39" s="10">
+        <f t="shared" ref="W39:W47" si="40">POWER(J39,1.353)</f>
+        <v>118.75732900820877</v>
+      </c>
+      <c r="X39" s="11">
+        <f t="shared" ref="X39:X47" si="41">POWER(K39,1.6543)</f>
+        <v>606.39786425012755</v>
+      </c>
+      <c r="Y39" s="11">
+        <f t="shared" ref="Y39:Y47" si="42">POWER(L39,0.862)</f>
+        <v>24.791690930912406</v>
+      </c>
+      <c r="Z39" s="11">
+        <f t="shared" ref="Z39:Z47" si="43">POWER(M39,1.353)</f>
+        <v>61.920962893497851</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" ref="AA39:AA47" si="44">POWER(N39,1.6543)</f>
+        <v>609.52948991889912</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" ref="AB39:AB47" si="45">POWER(O39,0.862)</f>
+        <v>26.893656779498915</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" ref="AC39:AC47" si="46">POWER(P39,1.353)</f>
+        <v>166.15954418049446</v>
+      </c>
+      <c r="AE39" s="19">
+        <f t="shared" si="11"/>
+        <v>793.95973160425535</v>
+      </c>
+      <c r="AF39" s="10">
+        <f t="shared" si="12"/>
+        <v>448.94470473053502</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" si="13"/>
+        <v>693.11051807453782</v>
+      </c>
+      <c r="AH39" s="12">
+        <f t="shared" si="14"/>
+        <v>802.58269087889244</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="15"/>
+        <v>0.83835336900084922</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="16"/>
+        <v>3.6710983371199511E-2</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="17"/>
+        <v>0.68936620678985838</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="18"/>
+        <v>4.6108278693851278E-2</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="19"/>
+        <v>0.87489346711214522</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="20"/>
+        <v>3.5768741469663114E-2</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="21"/>
+        <v>0.75946004922111565</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="22"/>
+        <v>3.350889208693026E-2</v>
+      </c>
+      <c r="AT39">
+        <v>0.92649270398882</v>
+      </c>
+      <c r="AU39">
+        <v>2.9426616274306424E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>47.66</v>
+      </c>
+      <c r="F40" s="9">
+        <v>46.816000000000003</v>
+      </c>
+      <c r="G40" s="9">
+        <v>27.69</v>
+      </c>
+      <c r="H40" s="15">
+        <v>33.655999999999999</v>
+      </c>
+      <c r="I40" s="15">
+        <v>35.122</v>
+      </c>
+      <c r="J40" s="15">
+        <v>35.390999999999998</v>
+      </c>
+      <c r="K40" s="16">
+        <v>45.536999999999999</v>
+      </c>
+      <c r="L40" s="16">
+        <v>38.387999999999998</v>
+      </c>
+      <c r="M40" s="16">
+        <v>19.059000000000001</v>
+      </c>
+      <c r="N40" s="17">
+        <v>48.85</v>
+      </c>
+      <c r="O40" s="17">
+        <v>45.252000000000002</v>
+      </c>
+      <c r="P40" s="17">
+        <v>43.668999999999997</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" ref="R40:R47" si="47">POWER(E40,1.6543)</f>
+        <v>597.26934504892063</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="36"/>
+        <v>27.534670922801574</v>
+      </c>
+      <c r="T40" s="13">
+        <f t="shared" si="37"/>
+        <v>89.425825759926923</v>
+      </c>
+      <c r="U40" s="10">
+        <f t="shared" si="38"/>
+        <v>335.90733867098658</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="39"/>
+        <v>21.492617200022362</v>
+      </c>
+      <c r="W40" s="10">
+        <f t="shared" si="40"/>
+        <v>124.63843998332773</v>
+      </c>
+      <c r="X40" s="11">
+        <f t="shared" si="41"/>
+        <v>553.90113220657793</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" si="42"/>
+        <v>23.204729440048791</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" si="43"/>
+        <v>53.948012430922354</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" si="44"/>
+        <v>622.14075934458538</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="45"/>
+        <v>26.739899152888949</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="46"/>
+        <v>165.63587376423754</v>
+      </c>
+      <c r="AE40" s="19">
+        <f t="shared" si="11"/>
+        <v>714.22984173164912</v>
+      </c>
+      <c r="AF40" s="10">
+        <f t="shared" si="12"/>
+        <v>482.03839585433667</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="13"/>
+        <v>631.05387407754915</v>
+      </c>
+      <c r="AH40" s="12">
+        <f t="shared" si="14"/>
+        <v>814.51653226171186</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="15"/>
+        <v>0.83624249527412919</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="16"/>
+        <v>3.8551554855288328E-2</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="17"/>
+        <v>0.69684768176120915</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="18"/>
+        <v>4.4586940345136002E-2</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="19"/>
+        <v>0.87773984909965064</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="20"/>
+        <v>3.6771392100188899E-2</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="21"/>
+        <v>0.76381599967904112</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="22"/>
+        <v>3.2829166866188503E-2</v>
+      </c>
+      <c r="AT40">
+        <v>0.86939300036478318</v>
+      </c>
+      <c r="AU40">
+        <v>2.6163633669860905E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>99</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>48.701999999999998</v>
+      </c>
+      <c r="F41" s="9">
+        <v>47.636000000000003</v>
+      </c>
+      <c r="G41" s="9">
+        <v>28.14</v>
+      </c>
+      <c r="H41" s="15">
+        <v>30.111999999999998</v>
+      </c>
+      <c r="I41" s="15">
+        <v>31.19</v>
+      </c>
+      <c r="J41" s="15">
+        <v>29.225000000000001</v>
+      </c>
+      <c r="K41" s="16">
+        <v>47.241999999999997</v>
+      </c>
+      <c r="L41" s="16">
+        <v>39.398000000000003</v>
+      </c>
+      <c r="M41" s="16">
+        <v>19.670999999999999</v>
+      </c>
+      <c r="N41" s="17">
+        <v>47.476999999999997</v>
+      </c>
+      <c r="O41" s="17">
+        <v>46.514000000000003</v>
+      </c>
+      <c r="P41" s="17">
+        <v>45.250999999999998</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="47"/>
+        <v>619.02567900126144</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="36"/>
+        <v>27.949897338543007</v>
+      </c>
+      <c r="T41" s="13">
+        <f t="shared" si="37"/>
+        <v>91.397748614613135</v>
+      </c>
+      <c r="U41" s="10">
+        <f t="shared" si="38"/>
+        <v>279.43379127515533</v>
+      </c>
+      <c r="V41" s="10">
+        <f t="shared" si="39"/>
+        <v>19.401765583640774</v>
+      </c>
+      <c r="W41" s="10">
+        <f t="shared" si="40"/>
+        <v>96.197960657026712</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" si="41"/>
+        <v>588.62847290531238</v>
+      </c>
+      <c r="Y41" s="11">
+        <f t="shared" si="42"/>
+        <v>23.730054715522375</v>
+      </c>
+      <c r="Z41" s="11">
+        <f t="shared" si="43"/>
+        <v>56.305027009110077</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="44"/>
+        <v>593.48025069912251</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="45"/>
+        <v>27.381493932328762</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="46"/>
+        <v>173.80606574292392</v>
+      </c>
+      <c r="AE41" s="19">
+        <f t="shared" si="11"/>
+        <v>738.37332495441751</v>
+      </c>
+      <c r="AF41" s="10">
+        <f t="shared" si="12"/>
+        <v>395.03351751582284</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="13"/>
+        <v>668.66355462994477</v>
+      </c>
+      <c r="AH41" s="12">
+        <f t="shared" si="14"/>
+        <v>794.66781037437522</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="15"/>
+        <v>0.83836408775936777</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="16"/>
+        <v>3.7853341113410967E-2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="17"/>
+        <v>0.70736729640659612</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="18"/>
+        <v>4.9114226320969456E-2</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="19"/>
+        <v>0.88030590097148964</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="20"/>
+        <v>3.5488781392691848E-2</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="21"/>
+        <v>0.7468280996804546</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="22"/>
+        <v>3.4456528344125444E-2</v>
+      </c>
+      <c r="AT41">
+        <v>0.86936759540570485</v>
+      </c>
+      <c r="AU41">
+        <v>2.4674876502812037E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>99</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>47.338000000000001</v>
+      </c>
+      <c r="F42" s="9">
+        <v>46.475999999999999</v>
+      </c>
+      <c r="G42" s="9">
+        <v>26.614999999999998</v>
+      </c>
+      <c r="H42" s="15">
+        <v>31.19</v>
+      </c>
+      <c r="I42" s="15">
+        <v>32.57</v>
+      </c>
+      <c r="J42" s="15">
+        <v>30.334</v>
+      </c>
+      <c r="K42" s="16">
+        <v>50.015999999999998</v>
+      </c>
+      <c r="L42" s="16">
+        <v>42.19</v>
+      </c>
+      <c r="M42" s="16">
+        <v>21.706</v>
+      </c>
+      <c r="N42" s="17">
+        <v>44.841000000000001</v>
+      </c>
+      <c r="O42" s="17">
+        <v>41.2</v>
+      </c>
+      <c r="P42" s="17">
+        <v>40.149000000000001</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="47"/>
+        <v>590.6085725601921</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="36"/>
+        <v>27.362210301814279</v>
+      </c>
+      <c r="T42" s="13">
+        <f t="shared" si="37"/>
+        <v>84.761008348519098</v>
+      </c>
+      <c r="U42" s="10">
+        <f t="shared" si="38"/>
+        <v>296.17584382254483</v>
+      </c>
+      <c r="V42" s="10">
+        <f t="shared" si="39"/>
+        <v>20.139510373066074</v>
+      </c>
+      <c r="W42" s="10">
+        <f t="shared" si="40"/>
+        <v>101.16979275028196</v>
+      </c>
+      <c r="X42" s="11">
+        <f t="shared" si="41"/>
+        <v>646.89820559746681</v>
+      </c>
+      <c r="Y42" s="11">
+        <f t="shared" si="42"/>
+        <v>25.172746996848105</v>
+      </c>
+      <c r="Z42" s="11">
+        <f t="shared" si="43"/>
+        <v>64.326877032456949</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="44"/>
+        <v>539.96602050956756</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="45"/>
+        <v>24.662744298802213</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="46"/>
+        <v>147.83317806703499</v>
+      </c>
+      <c r="AE42" s="19">
+        <f t="shared" si="11"/>
+        <v>702.73179121052544</v>
+      </c>
+      <c r="AF42" s="10">
+        <f t="shared" si="12"/>
+        <v>417.48514694589284</v>
+      </c>
+      <c r="AG42" s="11">
+        <f t="shared" si="13"/>
+        <v>736.39782962677191</v>
+      </c>
+      <c r="AH42" s="12">
+        <f t="shared" si="14"/>
+        <v>712.4619428754047</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="15"/>
+        <v>0.84044663973834177</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="16"/>
+        <v>3.8936918243986297E-2</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="17"/>
+        <v>0.70942845748936312</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="18"/>
+        <v>4.8240064396054327E-2</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="19"/>
+        <v>0.87846294431005301</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="20"/>
+        <v>3.4183624644312696E-2</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="21"/>
+        <v>0.75788752776089929</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="22"/>
+        <v>3.4616226937352682E-2</v>
+      </c>
+      <c r="AT42">
+        <v>0.87225013652342265</v>
+      </c>
+      <c r="AU42">
+        <v>2.3567230006840533E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>99</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>55.249000000000002</v>
+      </c>
+      <c r="F43" s="9">
+        <v>52.296999999999997</v>
+      </c>
+      <c r="G43" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H43" s="15">
+        <v>30.103000000000002</v>
+      </c>
+      <c r="I43" s="15">
+        <v>35.401000000000003</v>
+      </c>
+      <c r="J43" s="15">
+        <v>37.664000000000001</v>
+      </c>
+      <c r="K43" s="16">
+        <v>62.158999999999999</v>
+      </c>
+      <c r="L43" s="16">
+        <v>41.110999999999997</v>
+      </c>
+      <c r="M43" s="16">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="N43" s="17">
+        <v>49.780999999999999</v>
+      </c>
+      <c r="O43" s="17">
+        <v>44.786000000000001</v>
+      </c>
+      <c r="P43" s="17">
+        <v>40.210999999999999</v>
+      </c>
+      <c r="R43" s="13">
+        <f t="shared" si="47"/>
+        <v>762.65354078001712</v>
+      </c>
+      <c r="S43" s="13">
+        <f t="shared" si="36"/>
+        <v>30.29193256059083</v>
+      </c>
+      <c r="T43" s="13">
+        <f t="shared" si="37"/>
+        <v>7.883359761140837</v>
+      </c>
+      <c r="U43" s="10">
+        <f t="shared" si="38"/>
+        <v>279.29564040275073</v>
+      </c>
+      <c r="V43" s="10">
+        <f t="shared" si="39"/>
+        <v>21.639707535660879</v>
+      </c>
+      <c r="W43" s="10">
+        <f t="shared" si="40"/>
+        <v>135.59025418730425</v>
+      </c>
+      <c r="X43" s="11">
+        <f t="shared" si="41"/>
+        <v>926.81637575894229</v>
+      </c>
+      <c r="Y43" s="11">
+        <f t="shared" si="42"/>
+        <v>24.616813263149314</v>
+      </c>
+      <c r="Z43" s="11">
+        <f t="shared" si="43"/>
+        <v>0.44645543392780024</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" si="44"/>
+        <v>641.87777825417425</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="45"/>
+        <v>26.502365656971463</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="46"/>
+        <v>148.14214000630847</v>
+      </c>
+      <c r="AE43" s="19">
+        <f t="shared" si="11"/>
+        <v>800.82883310174873</v>
+      </c>
+      <c r="AF43" s="10">
+        <f t="shared" si="12"/>
+        <v>436.52560212571586</v>
+      </c>
+      <c r="AG43" s="11">
+        <f t="shared" si="13"/>
+        <v>951.87964445601938</v>
+      </c>
+      <c r="AH43" s="12">
+        <f t="shared" si="14"/>
+        <v>816.52228391745416</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="15"/>
+        <v>0.9523302724080599</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="16"/>
+        <v>3.7825726682773057E-2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="17"/>
+        <v>0.63981502812821467</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="18"/>
+        <v>4.9572596498999429E-2</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="19"/>
+        <v>0.9736697083049819</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="20"/>
+        <v>2.5861266607100673E-2</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="21"/>
+        <v>0.78611177048912539</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="22"/>
+        <v>3.2457614665236383E-2</v>
+      </c>
+      <c r="AT43">
+        <v>0.84545177914617853</v>
+      </c>
+      <c r="AU43">
+        <v>2.6561031567162021E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>54.566000000000003</v>
+      </c>
+      <c r="F44" s="9">
+        <v>50.55</v>
+      </c>
+      <c r="G44" s="9">
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="H44" s="15">
+        <v>31.484000000000002</v>
+      </c>
+      <c r="I44" s="15">
+        <v>36.804000000000002</v>
+      </c>
+      <c r="J44" s="15">
+        <v>38.39</v>
+      </c>
+      <c r="K44" s="16">
+        <v>61.837000000000003</v>
+      </c>
+      <c r="L44" s="16">
+        <v>40.121000000000002</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="N44" s="17">
+        <v>53.459000000000003</v>
+      </c>
+      <c r="O44" s="17">
+        <v>49.917000000000002</v>
+      </c>
+      <c r="P44" s="17">
+        <v>45.101999999999997</v>
+      </c>
+      <c r="R44" s="13">
+        <f t="shared" si="47"/>
+        <v>747.11982545350327</v>
+      </c>
+      <c r="S44" s="13">
+        <f t="shared" si="36"/>
+        <v>29.417627190841674</v>
+      </c>
+      <c r="T44" s="13">
+        <f t="shared" si="37"/>
+        <v>10.539057123738507</v>
+      </c>
+      <c r="U44" s="10">
+        <f t="shared" si="38"/>
+        <v>300.808516415837</v>
+      </c>
+      <c r="V44" s="10">
+        <f t="shared" si="39"/>
+        <v>22.376981817799873</v>
+      </c>
+      <c r="W44" s="10">
+        <f t="shared" si="40"/>
+        <v>139.13843227652862</v>
+      </c>
+      <c r="X44" s="11">
+        <f t="shared" si="41"/>
+        <v>918.88729672212935</v>
+      </c>
+      <c r="Y44" s="11">
+        <f t="shared" si="42"/>
+        <v>24.104961808184498</v>
+      </c>
+      <c r="Z44" s="11">
+        <f t="shared" si="43"/>
+        <v>0.61361214769765704</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="44"/>
+        <v>722.21226585114027</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="45"/>
+        <v>29.099812233496827</v>
+      </c>
+      <c r="AC44" s="12">
+        <f t="shared" si="46"/>
+        <v>173.03219547519859</v>
+      </c>
+      <c r="AE44" s="19">
+        <f t="shared" si="11"/>
+        <v>787.0765097680835</v>
+      </c>
+      <c r="AF44" s="10">
+        <f t="shared" si="12"/>
+        <v>462.3239305101655</v>
+      </c>
+      <c r="AG44" s="11">
+        <f t="shared" si="13"/>
+        <v>943.60587067801146</v>
+      </c>
+      <c r="AH44" s="12">
+        <f t="shared" si="14"/>
+        <v>924.34427355983564</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="15"/>
+        <v>0.94923405308290332</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="16"/>
+        <v>3.7375816487662354E-2</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="17"/>
+        <v>0.65064448661331598</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="18"/>
+        <v>4.8401089238680133E-2</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="19"/>
+        <v>0.97380413292880319</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="20"/>
+        <v>2.5545582702727675E-2</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="21"/>
+        <v>0.78132389252519041</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="22"/>
+        <v>3.1481573549893484E-2</v>
+      </c>
+      <c r="AT44">
+        <v>0.82144926759275572</v>
+      </c>
+      <c r="AU44">
+        <v>3.0701072406690278E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>51.341999999999999</v>
+      </c>
+      <c r="F45" s="9">
+        <v>47.609000000000002</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="H45" s="15">
+        <v>32.594000000000001</v>
+      </c>
+      <c r="I45" s="15">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="J45" s="15">
+        <v>40.338999999999999</v>
+      </c>
+      <c r="K45" s="16">
+        <v>57.603999999999999</v>
+      </c>
+      <c r="L45" s="16">
+        <v>35.067</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="N45" s="17">
+        <v>54.67</v>
+      </c>
+      <c r="O45" s="17">
+        <v>49.670999999999999</v>
+      </c>
+      <c r="P45" s="17">
+        <v>43.670999999999999</v>
+      </c>
+      <c r="R45" s="13">
+        <f t="shared" si="47"/>
+        <v>675.51519720325803</v>
+      </c>
+      <c r="S45" s="13">
+        <f t="shared" si="36"/>
+        <v>27.936241041691567</v>
+      </c>
+      <c r="T45" s="13">
+        <f t="shared" si="37"/>
+        <v>9.4294736391049518</v>
+      </c>
+      <c r="U45" s="10">
+        <f t="shared" si="38"/>
+        <v>318.55441821637226</v>
+      </c>
+      <c r="V45" s="10">
+        <f t="shared" si="39"/>
+        <v>22.918905404522267</v>
+      </c>
+      <c r="W45" s="10">
+        <f t="shared" si="40"/>
+        <v>148.7805288272634</v>
+      </c>
+      <c r="X45" s="11">
+        <f t="shared" si="41"/>
+        <v>817.17826175692448</v>
+      </c>
+      <c r="Y45" s="11">
+        <f t="shared" si="42"/>
+        <v>21.463601906245042</v>
+      </c>
+      <c r="Z45" s="11">
+        <f t="shared" si="43"/>
+        <v>0.80133129683665916</v>
+      </c>
+      <c r="AA45" s="12">
+        <f t="shared" si="44"/>
+        <v>749.47697102136351</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="45"/>
+        <v>28.976151444184502</v>
+      </c>
+      <c r="AC45" s="12">
+        <f t="shared" si="46"/>
+        <v>165.64613766534592</v>
+      </c>
+      <c r="AE45" s="19">
+        <f t="shared" si="11"/>
+        <v>712.88091188405451</v>
+      </c>
+      <c r="AF45" s="10">
+        <f t="shared" si="12"/>
+        <v>490.25385244815789</v>
+      </c>
+      <c r="AG45" s="11">
+        <f t="shared" si="13"/>
+        <v>839.44319496000617</v>
+      </c>
+      <c r="AH45" s="12">
+        <f t="shared" si="14"/>
+        <v>944.09926013089398</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="15"/>
+        <v>0.9475849134716714</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="16"/>
+        <v>3.9187809037921351E-2</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="17"/>
+        <v>0.64977443140043034</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="18"/>
+        <v>4.6749057228358724E-2</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="19"/>
+        <v>0.9734765457189245</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="20"/>
+        <v>2.5568855683281391E-2</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="21"/>
+        <v>0.79385399678996971</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="22"/>
+        <v>3.0691848482295309E-2</v>
+      </c>
+      <c r="AT45">
+        <v>0.83793953504335472</v>
+      </c>
+      <c r="AU45">
+        <v>3.627008011657086E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>99</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>54.335999999999999</v>
+      </c>
+      <c r="F46" s="9">
+        <v>50.451999999999998</v>
+      </c>
+      <c r="G46" s="9">
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="H46" s="15">
+        <v>25.298999999999999</v>
+      </c>
+      <c r="I46" s="15">
+        <v>30.31</v>
+      </c>
+      <c r="J46" s="15">
+        <v>33.28</v>
+      </c>
+      <c r="K46" s="16">
+        <v>60.183999999999997</v>
+      </c>
+      <c r="L46" s="16">
+        <v>36.311</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0.749</v>
+      </c>
+      <c r="N46" s="17">
+        <v>44.268999999999998</v>
+      </c>
+      <c r="O46" s="17">
+        <v>42.901000000000003</v>
+      </c>
+      <c r="P46" s="17">
+        <v>41.204999999999998</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" si="47"/>
+        <v>741.9173424869881</v>
+      </c>
+      <c r="S46" s="13">
+        <f t="shared" si="36"/>
+        <v>29.368459710222535</v>
+      </c>
+      <c r="T46" s="13">
+        <f t="shared" si="37"/>
+        <v>10.684386680252395</v>
+      </c>
+      <c r="U46" s="10">
+        <f t="shared" si="38"/>
+        <v>209.48545782249388</v>
+      </c>
+      <c r="V46" s="10">
+        <f t="shared" si="39"/>
+        <v>18.928974106622341</v>
+      </c>
+      <c r="W46" s="10">
+        <f t="shared" si="40"/>
+        <v>114.68695674214274</v>
+      </c>
+      <c r="X46" s="11">
+        <f t="shared" si="41"/>
+        <v>878.60869940414511</v>
+      </c>
+      <c r="Y46" s="11">
+        <f t="shared" si="42"/>
+        <v>22.118360722613897</v>
+      </c>
+      <c r="Z46" s="11">
+        <f t="shared" si="43"/>
+        <v>0.67635374542220039</v>
+      </c>
+      <c r="AA46" s="12">
+        <f t="shared" si="44"/>
+        <v>528.61898092654212</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="45"/>
+        <v>25.538001735524325</v>
+      </c>
+      <c r="AC46" s="12">
+        <f t="shared" si="46"/>
+        <v>153.11834971379872</v>
+      </c>
+      <c r="AE46" s="19">
+        <f t="shared" si="11"/>
+        <v>781.97018887746299</v>
+      </c>
+      <c r="AF46" s="10">
+        <f t="shared" si="12"/>
+        <v>343.10138867125897</v>
+      </c>
+      <c r="AG46" s="11">
+        <f t="shared" si="13"/>
+        <v>901.4034138721812</v>
+      </c>
+      <c r="AH46" s="12">
+        <f t="shared" si="14"/>
+        <v>707.2753323758651</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="15"/>
+        <v>0.94877957374823751</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="16"/>
+        <v>3.7557006811706803E-2</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="17"/>
+        <v>0.61056429597611284</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="18"/>
+        <v>5.517020546005149E-2</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="19"/>
+        <v>0.97471197233421136</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="20"/>
+        <v>2.4537693536792256E-2</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="21"/>
+        <v>0.74740197590493629</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="22"/>
+        <v>3.6107581540752429E-2</v>
+      </c>
+      <c r="AT46">
+        <v>0.83835336900084922</v>
+      </c>
+      <c r="AU46">
+        <v>3.6710983371199511E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>99</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>58.418999999999997</v>
+      </c>
+      <c r="F47" s="9">
+        <v>54.418999999999997</v>
+      </c>
+      <c r="G47" s="9">
+        <v>6.4189999999999996</v>
+      </c>
+      <c r="H47" s="15">
+        <v>27.111999999999998</v>
+      </c>
+      <c r="I47" s="15">
+        <v>32.113999999999997</v>
+      </c>
+      <c r="J47" s="15">
+        <v>35.113999999999997</v>
+      </c>
+      <c r="K47" s="16">
+        <v>63.158999999999999</v>
+      </c>
+      <c r="L47" s="16">
+        <v>42.110999999999997</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N47" s="17">
+        <v>51.292000000000002</v>
+      </c>
+      <c r="O47" s="17">
+        <v>46.29</v>
+      </c>
+      <c r="P47" s="17">
+        <v>42.289000000000001</v>
+      </c>
+      <c r="R47" s="13">
+        <f t="shared" si="47"/>
+        <v>836.39317124538604</v>
+      </c>
+      <c r="S47" s="13">
+        <f t="shared" si="36"/>
+        <v>31.348515523702382</v>
+      </c>
+      <c r="T47" s="13">
+        <f t="shared" si="37"/>
+        <v>12.373807611325752</v>
+      </c>
+      <c r="U47" s="10">
+        <f t="shared" si="38"/>
+        <v>234.89791494418137</v>
+      </c>
+      <c r="V47" s="10">
+        <f t="shared" si="39"/>
+        <v>19.896220044466737</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" si="40"/>
+        <v>123.32037946048622</v>
+      </c>
+      <c r="X47" s="11">
+        <f t="shared" si="41"/>
+        <v>951.61225455268743</v>
+      </c>
+      <c r="Y47" s="11">
+        <f t="shared" si="42"/>
+        <v>25.132110937094836</v>
+      </c>
+      <c r="Z47" s="11">
+        <f t="shared" si="43"/>
+        <v>0.47965647017486501</v>
+      </c>
+      <c r="AA47" s="12">
+        <f t="shared" si="44"/>
+        <v>674.42724901749295</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="45"/>
+        <v>27.267790575656729</v>
+      </c>
+      <c r="AC47" s="12">
+        <f t="shared" si="46"/>
+        <v>158.59361306875806</v>
+      </c>
+      <c r="AE47" s="19">
+        <f t="shared" si="11"/>
+        <v>880.11549438041425</v>
+      </c>
+      <c r="AF47" s="10">
+        <f t="shared" si="12"/>
+        <v>378.11451444913433</v>
+      </c>
+      <c r="AG47" s="11">
+        <f t="shared" si="13"/>
+        <v>977.2240219599571</v>
+      </c>
+      <c r="AH47" s="12">
+        <f t="shared" si="14"/>
+        <v>860.28865266190769</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="15"/>
+        <v>0.95032206180416356</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="16"/>
+        <v>3.5618638376286267E-2</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="17"/>
+        <v>0.62123485337873985</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="18"/>
+        <v>5.2619561757508961E-2</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="19"/>
+        <v>0.97379130390603608</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="20"/>
+        <v>2.5717860359888548E-2</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="21"/>
+        <v>0.78395460283089657</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="22"/>
+        <v>3.1696094666929117E-2</v>
+      </c>
+      <c r="AT47">
+        <v>0.83624249527412919</v>
+      </c>
+      <c r="AU47">
+        <v>3.8551554855288328E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT48">
+        <v>0.83836408775936777</v>
+      </c>
+      <c r="AU48">
+        <v>3.7853341113410967E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT49">
+        <v>0.84044663973834177</v>
+      </c>
+      <c r="AU49">
+        <v>3.8936918243986297E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT50">
+        <v>0.69541446930597128</v>
+      </c>
+      <c r="AU50">
+        <v>4.5238102006606121E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT51">
+        <v>0.68936620678985838</v>
+      </c>
+      <c r="AU51">
+        <v>4.6108278693851278E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT52">
+        <v>0.69684768176120915</v>
+      </c>
+      <c r="AU52">
+        <v>4.4586940345136002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT53">
+        <v>0.6694181638016008</v>
+      </c>
+      <c r="AU53">
+        <v>5.2273260583460678E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT54">
+        <v>0.67300895427335006</v>
+      </c>
+      <c r="AU54">
+        <v>5.1294679143327519E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="AT55">
+        <v>0.87111542129996156</v>
+      </c>
+      <c r="AU55">
+        <v>3.3192495570948846E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT56">
+        <v>0.87489346711214522</v>
+      </c>
+      <c r="AU56">
+        <v>3.5768741469663114E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT57">
+        <v>0.87773984909965064</v>
+      </c>
+      <c r="AU57">
+        <v>3.6771392100188899E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT58">
+        <v>0.88030590097148964</v>
+      </c>
+      <c r="AU58">
+        <v>3.5488781392691848E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT59">
+        <v>0.87846294431005301</v>
+      </c>
+      <c r="AU59">
+        <v>3.4183624644312696E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT60">
+        <v>0.76332408649602446</v>
+      </c>
+      <c r="AU60">
+        <v>3.3068822483256169E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT61">
+        <v>0.75946004922111565</v>
+      </c>
+      <c r="AU61">
+        <v>3.350889208693026E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT62">
+        <v>0.76381599967904112</v>
+      </c>
+      <c r="AU62">
+        <v>3.2829166866188503E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT63">
+        <v>0.75715984551962656</v>
+      </c>
+      <c r="AU63">
+        <v>3.6916699630734094E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT64">
+        <v>0.75788752776089929</v>
+      </c>
+      <c r="AU64">
+        <v>3.4616226937352682E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>